--- a/capiq_data/in_process_data/IQ295170.xlsx
+++ b/capiq_data/in_process_data/IQ295170.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626C6C5-8FD1-4A08-AF23-D82537A56A2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFCB251-3453-4310-A2B8-304767D774A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c304a33b-3420-48d6-b4be-421275674eda"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f2c6bdec-566c-476b-95d7-018e6804b58e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>230.18</v>
+        <v>78.313999999999993</v>
       </c>
       <c r="D2">
-        <v>2866.6640000000002</v>
+        <v>1467.6189999999999</v>
       </c>
       <c r="E2">
-        <v>1417.2809999999999</v>
+        <v>870.51</v>
       </c>
       <c r="F2">
-        <v>670.93600000000004</v>
+        <v>315.255</v>
       </c>
       <c r="G2">
-        <v>4043.94</v>
+        <v>2366.4589999999998</v>
       </c>
       <c r="H2">
-        <v>10618.843999999999</v>
+        <v>5308.3710000000001</v>
       </c>
       <c r="I2">
-        <v>960.56700000000001</v>
+        <v>378.77800000000002</v>
       </c>
       <c r="J2">
-        <v>1742.4639999999999</v>
+        <v>981.95299999999997</v>
       </c>
       <c r="K2">
-        <v>101.29300000000001</v>
+        <v>540.36800000000005</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1940.8679999999999</v>
+        <v>1378.144</v>
       </c>
       <c r="O2">
-        <v>5404.2510000000002</v>
+        <v>2851.2260000000001</v>
       </c>
       <c r="P2">
-        <v>1843.7570000000001</v>
+        <v>1522.3209999999999</v>
       </c>
       <c r="Q2">
-        <v>-115.1</v>
+        <v>16.338999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>5214.5929999999998</v>
+        <v>2457.145</v>
       </c>
       <c r="U2">
-        <v>808.73599999999999</v>
+        <v>71.528999999999996</v>
       </c>
       <c r="V2">
-        <v>285.27699999999999</v>
+        <v>154.75200000000001</v>
       </c>
       <c r="W2">
-        <v>-46.984000000000002</v>
+        <v>-19.37</v>
       </c>
       <c r="X2">
-        <v>-313.37</v>
+        <v>-64.662999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +931,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>230.18</v>
+        <v>78.313999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>279.589</v>
+        <v>88.073999999999998</v>
       </c>
       <c r="D3">
-        <v>3240.1030000000001</v>
+        <v>1542.058</v>
       </c>
       <c r="E3">
-        <v>1746.1690000000001</v>
+        <v>888.76</v>
       </c>
       <c r="F3">
-        <v>777.02</v>
+        <v>320.815</v>
       </c>
       <c r="G3">
-        <v>4691.3289999999997</v>
+        <v>2286.8910000000001</v>
       </c>
       <c r="H3">
-        <v>11376.861999999999</v>
+        <v>5251.4380000000001</v>
       </c>
       <c r="I3">
-        <v>1085.126</v>
+        <v>333.21199999999999</v>
       </c>
       <c r="J3">
-        <v>1683.731</v>
+        <v>865.45600000000002</v>
       </c>
       <c r="K3">
-        <v>173.233</v>
+        <v>613.32799999999997</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2340.42</v>
+        <v>1387.279</v>
       </c>
       <c r="O3">
-        <v>5793.1329999999998</v>
+        <v>2761.0940000000001</v>
       </c>
       <c r="P3">
-        <v>1856.9639999999999</v>
+        <v>1478.7840000000001</v>
       </c>
       <c r="Q3">
-        <v>299.21899999999999</v>
+        <v>-26.32</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5583.7290000000003</v>
+        <v>2490.3440000000001</v>
       </c>
       <c r="U3">
-        <v>1107.9549999999999</v>
+        <v>45.209000000000003</v>
       </c>
       <c r="V3">
-        <v>391.77600000000001</v>
+        <v>133.57599999999999</v>
       </c>
       <c r="W3">
-        <v>-51.999000000000002</v>
+        <v>-20.567</v>
       </c>
       <c r="X3">
-        <v>-57.302</v>
+        <v>-41.966000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>279.589</v>
+        <v>88.073999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>292.19</v>
+        <v>49.357999999999997</v>
       </c>
       <c r="D4">
-        <v>3409.83</v>
+        <v>1484.796</v>
       </c>
       <c r="E4">
-        <v>1769.665</v>
+        <v>922.32500000000005</v>
       </c>
       <c r="F4">
-        <v>834.33399999999995</v>
+        <v>301.34699999999998</v>
       </c>
       <c r="G4">
-        <v>4305.2560000000003</v>
+        <v>2196.3620000000001</v>
       </c>
       <c r="H4">
-        <v>10886.805</v>
+        <v>5337.6610000000001</v>
       </c>
       <c r="I4">
-        <v>1173.8510000000001</v>
+        <v>367.80599999999998</v>
       </c>
       <c r="J4">
-        <v>1691.086</v>
+        <v>857.07799999999997</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>526.80899999999997</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2391.0430000000001</v>
+        <v>1413.1289999999999</v>
       </c>
       <c r="O4">
-        <v>5398.4690000000001</v>
+        <v>2808.7460000000001</v>
       </c>
       <c r="P4">
-        <v>1766.357</v>
+        <v>1403.58</v>
       </c>
       <c r="Q4">
-        <v>-450.48899999999998</v>
+        <v>-21.643999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>58409</v>
+        <v>46302</v>
       </c>
       <c r="T4">
-        <v>5488.3360000000002</v>
+        <v>2528.915</v>
       </c>
       <c r="U4">
-        <v>657.46600000000001</v>
+        <v>23.565000000000001</v>
       </c>
       <c r="V4">
-        <v>367</v>
+        <v>223.87299999999999</v>
       </c>
       <c r="W4">
-        <v>-60.155000000000001</v>
+        <v>-20.623000000000001</v>
       </c>
       <c r="X4">
-        <v>-792.10500000000002</v>
+        <v>-97.605000000000004</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,81 +1097,81 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>292.19</v>
+        <v>49.357999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>297.01799999999997</v>
+        <v>60.581000000000003</v>
       </c>
       <c r="D5">
-        <v>3233.8809999999999</v>
+        <v>1475.867</v>
       </c>
       <c r="E5">
-        <v>1684.182</v>
+        <v>920.95799999999997</v>
       </c>
       <c r="F5">
-        <v>824.89700000000005</v>
+        <v>282.87599999999998</v>
       </c>
       <c r="G5">
-        <v>3999.3339999999998</v>
+        <v>2244.0030000000002</v>
       </c>
       <c r="H5">
-        <v>10321.59</v>
+        <v>5495.9750000000004</v>
       </c>
       <c r="I5">
-        <v>1120.3389999999999</v>
+        <v>380.00900000000001</v>
       </c>
       <c r="J5">
-        <v>1668.6</v>
+        <v>874.22799999999995</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>583.428</v>
       </c>
       <c r="L5">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-0.23599999999999999</v>
+        <v>-3.8370000000000002</v>
       </c>
       <c r="N5">
-        <v>2235.7089999999998</v>
+        <v>1497.5730000000001</v>
       </c>
       <c r="O5">
-        <v>5208.1019999999999</v>
+        <v>2915.337</v>
       </c>
       <c r="P5">
-        <v>1747.1469999999999</v>
+        <v>1457.6559999999999</v>
       </c>
       <c r="Q5">
-        <v>-233.11199999999999</v>
+        <v>11.819000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5113.4880000000003</v>
+        <v>2580.6379999999999</v>
       </c>
       <c r="U5">
-        <v>424.35399999999998</v>
+        <v>35.384</v>
       </c>
       <c r="V5">
-        <v>309.49599999999998</v>
+        <v>203.09700000000001</v>
       </c>
       <c r="W5">
-        <v>-56.078000000000003</v>
+        <v>-20.731000000000002</v>
       </c>
       <c r="X5">
-        <v>-431.04</v>
+        <v>14.962999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>297.01799999999997</v>
+        <v>60.581000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>240.76599999999999</v>
+        <v>29.062000000000001</v>
       </c>
       <c r="D6">
-        <v>3106.8319999999999</v>
+        <v>1437.33</v>
       </c>
       <c r="E6">
-        <v>1603.0550000000001</v>
+        <v>813.63800000000003</v>
       </c>
       <c r="F6">
-        <v>726.70399999999995</v>
+        <v>239.792</v>
       </c>
       <c r="G6">
-        <v>4043.0230000000001</v>
+        <v>2190.5230000000001</v>
       </c>
       <c r="H6">
-        <v>10327.584000000001</v>
+        <v>5548.8180000000002</v>
       </c>
       <c r="I6">
-        <v>1069.5029999999999</v>
+        <v>336.45400000000001</v>
       </c>
       <c r="J6">
-        <v>1659.434</v>
+        <v>1063.0609999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>493.27800000000002</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2120.1089999999999</v>
+        <v>1339.364</v>
       </c>
       <c r="O6">
-        <v>5071.6809999999996</v>
+        <v>2963.7739999999999</v>
       </c>
       <c r="P6">
-        <v>1737.809</v>
+        <v>1556.3389999999999</v>
       </c>
       <c r="Q6">
-        <v>63.63</v>
+        <v>-6.5010000000000003</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5255.9030000000002</v>
+        <v>2585.0439999999999</v>
       </c>
       <c r="U6">
-        <v>487.98399999999998</v>
+        <v>28.882999999999999</v>
       </c>
       <c r="V6">
-        <v>253.92</v>
+        <v>147.239</v>
       </c>
       <c r="W6">
-        <v>-56.012999999999998</v>
+        <v>-20.699000000000002</v>
       </c>
       <c r="X6">
-        <v>-74.72</v>
+        <v>80.113</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,42 +1263,42 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>240.76599999999999</v>
+        <v>29.062000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>312.07400000000001</v>
+        <v>52.356999999999999</v>
       </c>
       <c r="D7">
-        <v>3393.5630000000001</v>
+        <v>1578.3320000000001</v>
       </c>
       <c r="E7">
-        <v>1830.7550000000001</v>
+        <v>981.97199999999998</v>
       </c>
       <c r="F7">
-        <v>806.56200000000001</v>
+        <v>272.61700000000002</v>
       </c>
       <c r="G7">
-        <v>4497.3010000000004</v>
+        <v>2323.9560000000001</v>
       </c>
       <c r="H7">
-        <v>10889.124</v>
+        <v>5755.0169999999998</v>
       </c>
       <c r="I7">
-        <v>1148.9390000000001</v>
+        <v>378.95100000000002</v>
       </c>
       <c r="J7">
-        <v>1515.2170000000001</v>
+        <v>1052.174</v>
       </c>
       <c r="K7">
-        <v>48.906999999999996</v>
+        <v>547.76400000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,37 +1307,37 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2489.3000000000002</v>
+        <v>1483.6089999999999</v>
       </c>
       <c r="O7">
-        <v>5302.6559999999999</v>
+        <v>3128.788</v>
       </c>
       <c r="P7">
-        <v>1789.124</v>
+        <v>1599.9380000000001</v>
       </c>
       <c r="Q7">
-        <v>285.47500000000002</v>
+        <v>3.0339999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5586.4679999999998</v>
+        <v>2626.2289999999998</v>
       </c>
       <c r="U7">
-        <v>773.45899999999995</v>
+        <v>31.917000000000002</v>
       </c>
       <c r="V7">
-        <v>443.04500000000002</v>
+        <v>107.648</v>
       </c>
       <c r="W7">
-        <v>-59.015000000000001</v>
+        <v>-20.628</v>
       </c>
       <c r="X7">
-        <v>-85.069000000000003</v>
+        <v>36.927999999999997</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>312.07400000000001</v>
+        <v>52.356999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>301.96499999999997</v>
+        <v>-11.85</v>
       </c>
       <c r="D8">
-        <v>3411.6660000000002</v>
+        <v>1657.5930000000001</v>
       </c>
       <c r="E8">
-        <v>1782.443</v>
+        <v>1006.313</v>
       </c>
       <c r="F8">
-        <v>842.11099999999999</v>
+        <v>261.24400000000003</v>
       </c>
       <c r="G8">
-        <v>4498.1139999999996</v>
+        <v>2235.6179999999999</v>
       </c>
       <c r="H8">
-        <v>11170.281999999999</v>
+        <v>5752.5829999999996</v>
       </c>
       <c r="I8">
-        <v>1194.684</v>
+        <v>443.52499999999998</v>
       </c>
       <c r="J8">
-        <v>1503.9459999999999</v>
+        <v>1088.883</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>396.88299999999998</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2486.0129999999999</v>
+        <v>1359.837</v>
       </c>
       <c r="O8">
-        <v>6264.5519999999997</v>
+        <v>3169.067</v>
       </c>
       <c r="P8">
-        <v>1729.5350000000001</v>
+        <v>1505.576</v>
       </c>
       <c r="Q8">
-        <v>64.858000000000004</v>
+        <v>14.467000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>59331</v>
+        <v>48176</v>
       </c>
       <c r="T8">
-        <v>4905.7299999999996</v>
+        <v>2583.5160000000001</v>
       </c>
       <c r="U8">
-        <v>838.31700000000001</v>
+        <v>46.384</v>
       </c>
       <c r="V8">
-        <v>523.92399999999998</v>
+        <v>173.06200000000001</v>
       </c>
       <c r="W8">
-        <v>-62.061999999999998</v>
+        <v>-20.78</v>
       </c>
       <c r="X8">
-        <v>-232.691</v>
+        <v>-132.881</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,81 +1429,81 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>301.96499999999997</v>
+        <v>-11.85</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>239.74100000000001</v>
+        <v>60.975000000000001</v>
       </c>
       <c r="D9">
-        <v>3214.9349999999999</v>
+        <v>1585.904</v>
       </c>
       <c r="E9">
-        <v>1780.6469999999999</v>
+        <v>945.86099999999999</v>
       </c>
       <c r="F9">
-        <v>739.49400000000003</v>
+        <v>287.553</v>
       </c>
       <c r="G9">
-        <v>4200.0820000000003</v>
+        <v>2163.317</v>
       </c>
       <c r="H9">
-        <v>11134.578</v>
+        <v>5626.4170000000004</v>
       </c>
       <c r="I9">
-        <v>1162.797</v>
+        <v>413.91199999999998</v>
       </c>
       <c r="J9">
-        <v>1511.799</v>
+        <v>955.31200000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>453.13</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-89.638999999999996</v>
       </c>
       <c r="M9">
-        <v>-76.69</v>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="N9">
-        <v>2366.4650000000001</v>
+        <v>1337.1389999999999</v>
       </c>
       <c r="O9">
-        <v>5982.5640000000003</v>
+        <v>3013.259</v>
       </c>
       <c r="P9">
-        <v>1776.3810000000001</v>
+        <v>1408.442</v>
       </c>
       <c r="Q9">
-        <v>-402.18599999999998</v>
+        <v>-0.65400000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5152.0140000000001</v>
+        <v>2613.1579999999999</v>
       </c>
       <c r="U9">
-        <v>436.13099999999997</v>
+        <v>45.73</v>
       </c>
       <c r="V9">
-        <v>-6.9710000000000001</v>
+        <v>145.15299999999999</v>
       </c>
       <c r="W9">
-        <v>-61.365000000000002</v>
+        <v>-20.841999999999999</v>
       </c>
       <c r="X9">
-        <v>-171.66800000000001</v>
+        <v>-110.211</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>239.74100000000001</v>
+        <v>60.975000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>180.96199999999999</v>
+        <v>37.552</v>
       </c>
       <c r="D10">
-        <v>3065.4949999999999</v>
+        <v>1517.201</v>
       </c>
       <c r="E10">
-        <v>1591.8579999999999</v>
+        <v>898.88800000000003</v>
       </c>
       <c r="F10">
-        <v>645.62099999999998</v>
+        <v>263.06599999999997</v>
       </c>
       <c r="G10">
-        <v>4095.7469999999998</v>
+        <v>2121.6129999999998</v>
       </c>
       <c r="H10">
-        <v>11461.361000000001</v>
+        <v>5591.22</v>
       </c>
       <c r="I10">
-        <v>1073.2329999999999</v>
+        <v>371.83499999999998</v>
       </c>
       <c r="J10">
-        <v>1509.2380000000001</v>
+        <v>773.73299999999995</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>580.81600000000003</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2488.2600000000002</v>
+        <v>1416.6759999999999</v>
       </c>
       <c r="O10">
-        <v>6132.3720000000003</v>
+        <v>2920.0940000000001</v>
       </c>
       <c r="P10">
-        <v>2019.2439999999999</v>
+        <v>1354.549</v>
       </c>
       <c r="Q10">
-        <v>61.503999999999998</v>
+        <v>-10.365</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>5328.9889999999996</v>
+        <v>2671.1260000000002</v>
       </c>
       <c r="U10">
-        <v>497.63499999999999</v>
+        <v>35.365000000000002</v>
       </c>
       <c r="V10">
-        <v>354.30900000000003</v>
+        <v>115.29600000000001</v>
       </c>
       <c r="W10">
-        <v>-61.235999999999997</v>
+        <v>-20.853999999999999</v>
       </c>
       <c r="X10">
-        <v>114.82</v>
+        <v>-91.906999999999996</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,42 +1595,42 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>180.96199999999999</v>
+        <v>37.552</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>256.56</v>
+        <v>48.662999999999997</v>
       </c>
       <c r="D11">
-        <v>3307.0410000000002</v>
+        <v>1646.8440000000001</v>
       </c>
       <c r="E11">
-        <v>1803.386</v>
+        <v>991.13099999999997</v>
       </c>
       <c r="F11">
-        <v>739.32600000000002</v>
+        <v>285.77600000000001</v>
       </c>
       <c r="G11">
-        <v>5438.509</v>
+        <v>2200.36</v>
       </c>
       <c r="H11">
-        <v>12671.772000000001</v>
+        <v>5756.0870000000004</v>
       </c>
       <c r="I11">
-        <v>1162.125</v>
+        <v>395.65800000000002</v>
       </c>
       <c r="J11">
-        <v>1496.0260000000001</v>
+        <v>948.16399999999999</v>
       </c>
       <c r="K11">
-        <v>1527.6959999999999</v>
+        <v>410.27800000000002</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3648.549</v>
+        <v>1309.3800000000001</v>
       </c>
       <c r="O11">
-        <v>7259.3639999999996</v>
+        <v>3032.1959999999999</v>
       </c>
       <c r="P11">
-        <v>3023.7220000000002</v>
+        <v>1358.442</v>
       </c>
       <c r="Q11">
-        <v>1179.684</v>
+        <v>17.331</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>5412.4080000000004</v>
+        <v>2723.8910000000001</v>
       </c>
       <c r="U11">
-        <v>1677.319</v>
+        <v>52.695999999999998</v>
       </c>
       <c r="V11">
-        <v>371.46100000000001</v>
+        <v>65.718999999999994</v>
       </c>
       <c r="W11">
-        <v>-64.376999999999995</v>
+        <v>-22.042999999999999</v>
       </c>
       <c r="X11">
-        <v>929.42499999999995</v>
+        <v>-18.577999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>256.56</v>
+        <v>48.662999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>271.16399999999999</v>
+        <v>49.082000000000001</v>
       </c>
       <c r="D12">
-        <v>3428.2330000000002</v>
+        <v>1660.6610000000001</v>
       </c>
       <c r="E12">
-        <v>1840.82</v>
+        <v>1002.06</v>
       </c>
       <c r="F12">
-        <v>812.94200000000001</v>
+        <v>284.57299999999998</v>
       </c>
       <c r="G12">
-        <v>5531.1859999999997</v>
+        <v>2396.8069999999998</v>
       </c>
       <c r="H12">
-        <v>12540.897999999999</v>
+        <v>5985.6329999999998</v>
       </c>
       <c r="I12">
-        <v>1156.002</v>
+        <v>437.10300000000001</v>
       </c>
       <c r="J12">
-        <v>1495.96</v>
+        <v>966.33199999999999</v>
       </c>
       <c r="K12">
-        <v>1331.4449999999999</v>
+        <v>27.422000000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3520.203</v>
+        <v>1423.7270000000001</v>
       </c>
       <c r="O12">
-        <v>6799.4170000000004</v>
+        <v>3464.7220000000002</v>
       </c>
       <c r="P12">
-        <v>2829.7860000000001</v>
+        <v>1390.567</v>
       </c>
       <c r="Q12">
-        <v>104.093</v>
+        <v>193.154</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>58151</v>
+        <v>46787</v>
       </c>
       <c r="T12">
-        <v>5741.4809999999998</v>
+        <v>2520.9110000000001</v>
       </c>
       <c r="U12">
-        <v>1781.412</v>
+        <v>245.85</v>
       </c>
       <c r="V12">
-        <v>472.13600000000002</v>
+        <v>231.321</v>
       </c>
       <c r="W12">
-        <v>-67.305000000000007</v>
+        <v>-22.094000000000001</v>
       </c>
       <c r="X12">
-        <v>-296.40300000000002</v>
+        <v>-1.5149999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,81 +1761,81 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>271.16399999999999</v>
+        <v>49.082000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>244.316</v>
+        <v>56.691000000000003</v>
       </c>
       <c r="D13">
-        <v>3226.1439999999998</v>
+        <v>1562.105</v>
       </c>
       <c r="E13">
-        <v>1749.383</v>
+        <v>967.86599999999999</v>
       </c>
       <c r="F13">
-        <v>755.928</v>
+        <v>286.03800000000001</v>
       </c>
       <c r="G13">
-        <v>5679.1790000000001</v>
+        <v>2305.9549999999999</v>
       </c>
       <c r="H13">
-        <v>12788.364</v>
+        <v>5882.5919999999996</v>
       </c>
       <c r="I13">
-        <v>1130.6759999999999</v>
+        <v>415.38</v>
       </c>
       <c r="J13">
-        <v>1506.7439999999999</v>
+        <v>956.35599999999999</v>
       </c>
       <c r="K13">
-        <v>1335.3389999999999</v>
+        <v>289.041</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.14899999999999999</v>
+        <v>-145.81399999999999</v>
       </c>
       <c r="N13">
-        <v>3455.009</v>
+        <v>1256.3630000000001</v>
       </c>
       <c r="O13">
-        <v>6698.5929999999998</v>
+        <v>3294.7310000000002</v>
       </c>
       <c r="P13">
-        <v>2842.0830000000001</v>
+        <v>1245.3969999999999</v>
       </c>
       <c r="Q13">
-        <v>164.21100000000001</v>
+        <v>-40.441000000000003</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6089.7709999999997</v>
+        <v>2587.8609999999999</v>
       </c>
       <c r="U13">
-        <v>1945.623</v>
+        <v>205.40899999999999</v>
       </c>
       <c r="V13">
-        <v>282.69099999999997</v>
+        <v>144.03200000000001</v>
       </c>
       <c r="W13">
-        <v>-67.388000000000005</v>
+        <v>-22.131</v>
       </c>
       <c r="X13">
-        <v>-111.024</v>
+        <v>-154.11000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>244.316</v>
+        <v>56.691000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>253.28800000000001</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3106.0059999999999</v>
+        <v>1593.34</v>
       </c>
       <c r="E14">
-        <v>1625.7819999999999</v>
+        <v>926.39300000000003</v>
       </c>
       <c r="F14">
-        <v>695.08600000000001</v>
+        <v>283.101</v>
       </c>
       <c r="G14">
-        <v>5744.8729999999996</v>
+        <v>2206.9279999999999</v>
       </c>
       <c r="H14">
-        <v>12863.936</v>
+        <v>5799.4949999999999</v>
       </c>
       <c r="I14">
-        <v>1074.5119999999999</v>
+        <v>444.07600000000002</v>
       </c>
       <c r="J14">
-        <v>1507.019</v>
+        <v>975.23500000000001</v>
       </c>
       <c r="K14">
-        <v>1217.2919999999999</v>
+        <v>36.142000000000003</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3303.1030000000001</v>
+        <v>1015.965</v>
       </c>
       <c r="O14">
-        <v>6565.65</v>
+        <v>3095.2220000000002</v>
       </c>
       <c r="P14">
-        <v>2724.3110000000001</v>
+        <v>1011.377</v>
       </c>
       <c r="Q14">
-        <v>193.899</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>6298.2860000000001</v>
+        <v>2704.2730000000001</v>
       </c>
       <c r="U14">
-        <v>2139.5219999999999</v>
+        <v>138.047</v>
       </c>
       <c r="V14">
-        <v>257.41800000000001</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-67.33</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-222.31200000000001</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,42 +1927,42 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>253.28800000000001</v>
+        <v>55.771000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>242.40600000000001</v>
+        <v>107.848</v>
       </c>
       <c r="D15">
-        <v>3358.4059999999999</v>
+        <v>1879.057</v>
       </c>
       <c r="E15">
-        <v>1859.6569999999999</v>
+        <v>1190.598</v>
       </c>
       <c r="F15">
-        <v>783.56600000000003</v>
+        <v>354.28199999999998</v>
       </c>
       <c r="G15">
-        <v>5949</v>
+        <v>2493.0549999999998</v>
       </c>
       <c r="H15">
-        <v>13102.358</v>
+        <v>6230.8010000000004</v>
       </c>
       <c r="I15">
-        <v>1200.4659999999999</v>
+        <v>501.899</v>
       </c>
       <c r="J15">
-        <v>1508.6110000000001</v>
+        <v>968.32600000000002</v>
       </c>
       <c r="K15">
-        <v>1078.846</v>
+        <v>165.44800000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,37 +1971,37 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3367.181</v>
+        <v>1331.4159999999999</v>
       </c>
       <c r="O15">
-        <v>6648.125</v>
+        <v>3440.1370000000002</v>
       </c>
       <c r="P15">
-        <v>2587.4569999999999</v>
+        <v>1133.7739999999999</v>
       </c>
       <c r="Q15">
-        <v>-43.533000000000001</v>
+        <v>31.908999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6454.2330000000002</v>
+        <v>2790.6640000000002</v>
       </c>
       <c r="U15">
-        <v>2095.989</v>
+        <v>169.95599999999999</v>
       </c>
       <c r="V15">
-        <v>277.36200000000002</v>
+        <v>127.413</v>
       </c>
       <c r="W15">
-        <v>-71.777000000000001</v>
+        <v>-22.408000000000001</v>
       </c>
       <c r="X15">
-        <v>-249.38900000000001</v>
+        <v>118.59099999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>242.40600000000001</v>
+        <v>107.848</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>301.03800000000001</v>
+        <v>125.473</v>
       </c>
       <c r="D16">
-        <v>3525.415</v>
+        <v>1964.259</v>
       </c>
       <c r="E16">
-        <v>1858.1759999999999</v>
+        <v>1174.6010000000001</v>
       </c>
       <c r="F16">
-        <v>856.73900000000003</v>
+        <v>418.19200000000001</v>
       </c>
       <c r="G16">
-        <v>6071.58</v>
+        <v>2491.4409999999998</v>
       </c>
       <c r="H16">
-        <v>13274.361999999999</v>
+        <v>6235.2330000000002</v>
       </c>
       <c r="I16">
-        <v>1252.04</v>
+        <v>525.11300000000006</v>
       </c>
       <c r="J16">
-        <v>1508.1420000000001</v>
+        <v>953.79600000000005</v>
       </c>
       <c r="K16">
-        <v>816.12599999999998</v>
+        <v>18.468</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,164 +2054,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3252.7959999999998</v>
+        <v>1238.644</v>
       </c>
       <c r="O16">
-        <v>6611.5540000000001</v>
+        <v>3252.779</v>
       </c>
       <c r="P16">
-        <v>2324.7640000000001</v>
+        <v>988.99400000000003</v>
       </c>
       <c r="Q16">
-        <v>-482.43400000000003</v>
+        <v>13.891</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>57447</v>
+        <v>48447</v>
       </c>
       <c r="T16">
-        <v>6662.808</v>
+        <v>2982.4540000000002</v>
       </c>
       <c r="U16">
-        <v>1613.5550000000001</v>
+        <v>183.84700000000001</v>
       </c>
       <c r="V16">
-        <v>570.42200000000003</v>
+        <v>158.71899999999999</v>
       </c>
       <c r="W16">
-        <v>-71.727000000000004</v>
+        <v>-22.440999999999999</v>
       </c>
       <c r="X16">
-        <v>-375.39</v>
+        <v>-146.22399999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-624.88</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>301.03800000000001</v>
+        <v>125.473</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>280.089</v>
+        <v>132.78299999999999</v>
       </c>
       <c r="D17">
-        <v>3269.9319999999998</v>
+        <v>1877.915</v>
       </c>
       <c r="E17">
-        <v>1711.798</v>
+        <v>1185.357</v>
       </c>
       <c r="F17">
-        <v>815.18499999999995</v>
+        <v>401.25599999999997</v>
       </c>
       <c r="G17">
-        <v>5876.2619999999997</v>
+        <v>2676.92</v>
       </c>
       <c r="H17">
-        <v>12744.625</v>
+        <v>6339.81</v>
       </c>
       <c r="I17">
-        <v>1192.652</v>
+        <v>509.17099999999999</v>
       </c>
       <c r="J17">
-        <v>1482.492</v>
+        <v>955.14499999999998</v>
       </c>
       <c r="K17">
-        <v>702.01800000000003</v>
+        <v>33.033000000000001</v>
       </c>
       <c r="L17">
-        <v>-113.27200000000001</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.29399999999999998</v>
+        <v>-3.5249999999999999</v>
       </c>
       <c r="N17">
-        <v>2888.1990000000001</v>
+        <v>1223.0409999999999</v>
       </c>
       <c r="O17">
-        <v>6162.2610000000004</v>
+        <v>3223.3449999999998</v>
       </c>
       <c r="P17">
-        <v>2184.5100000000002</v>
+        <v>988.178</v>
       </c>
       <c r="Q17">
-        <v>-521.41800000000001</v>
+        <v>106.87</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6582.3639999999996</v>
+        <v>3116.4650000000001</v>
       </c>
       <c r="U17">
-        <v>1092.1369999999999</v>
+        <v>290.71699999999998</v>
       </c>
       <c r="V17">
-        <v>260.87400000000002</v>
+        <v>159.48500000000001</v>
       </c>
       <c r="W17">
-        <v>-71.606999999999999</v>
+        <v>-22.483000000000001</v>
       </c>
       <c r="X17">
-        <v>-229.666</v>
+        <v>-26.081</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-446.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>280.089</v>
+        <v>132.78299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>267.25200000000001</v>
+        <v>171.12700000000001</v>
       </c>
       <c r="D18">
-        <v>3134.9929999999999</v>
+        <v>1905.931</v>
       </c>
       <c r="E18">
-        <v>1572.864</v>
+        <v>1158.7850000000001</v>
       </c>
       <c r="F18">
-        <v>738.89800000000002</v>
+        <v>390.06599999999997</v>
       </c>
       <c r="G18">
-        <v>5727.7719999999999</v>
+        <v>2552.8960000000002</v>
       </c>
       <c r="H18">
-        <v>12568.398999999999</v>
+        <v>6681.0940000000001</v>
       </c>
       <c r="I18">
-        <v>1145.202</v>
+        <v>490.13400000000001</v>
       </c>
       <c r="J18">
-        <v>2725.51</v>
+        <v>988.82799999999997</v>
       </c>
       <c r="K18">
-        <v>242.04300000000001</v>
+        <v>81.081999999999994</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2339.1509999999998</v>
+        <v>1205.8779999999999</v>
       </c>
       <c r="O18">
-        <v>6808.2579999999998</v>
+        <v>3293.692</v>
       </c>
       <c r="P18">
-        <v>2967.5529999999999</v>
+        <v>1069.9100000000001</v>
       </c>
       <c r="Q18">
-        <v>-16.829999999999998</v>
+        <v>-173.85599999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5760.1409999999996</v>
+        <v>3387.402</v>
       </c>
       <c r="U18">
-        <v>1075.307</v>
+        <v>116.861</v>
       </c>
       <c r="V18">
-        <v>277.62299999999999</v>
+        <v>175.87799999999999</v>
       </c>
       <c r="W18">
-        <v>-93.150999999999996</v>
+        <v>-22.582000000000001</v>
       </c>
       <c r="X18">
-        <v>-117.64100000000001</v>
+        <v>44.156999999999996</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-49.091000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>267.25200000000001</v>
+        <v>171.12700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>285.34500000000003</v>
+        <v>139.37</v>
       </c>
       <c r="D19">
-        <v>3162.3110000000001</v>
+        <v>2112.462</v>
       </c>
       <c r="E19">
-        <v>1701.0170000000001</v>
+        <v>1283.675</v>
       </c>
       <c r="F19">
-        <v>794.11800000000005</v>
+        <v>429.92500000000001</v>
       </c>
       <c r="G19">
-        <v>5784.9970000000003</v>
+        <v>2611.0569999999998</v>
       </c>
       <c r="H19">
-        <v>12337.215</v>
+        <v>6755.4250000000002</v>
       </c>
       <c r="I19">
-        <v>1138.163</v>
+        <v>533.67399999999998</v>
       </c>
       <c r="J19">
-        <v>2724.9430000000002</v>
+        <v>966.81399999999996</v>
       </c>
       <c r="K19">
-        <v>665.12300000000005</v>
+        <v>18.097999999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2767.3240000000001</v>
+        <v>1243.222</v>
       </c>
       <c r="O19">
-        <v>7182.2759999999998</v>
+        <v>3294.3739999999998</v>
       </c>
       <c r="P19">
-        <v>3390.0659999999998</v>
+        <v>984.91200000000003</v>
       </c>
       <c r="Q19">
-        <v>-58.293999999999997</v>
+        <v>-12.577</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5154.9390000000003</v>
+        <v>3461.0509999999999</v>
       </c>
       <c r="U19">
-        <v>1017.013</v>
+        <v>104.28400000000001</v>
       </c>
       <c r="V19">
-        <v>252.553</v>
+        <v>163.036</v>
       </c>
       <c r="W19">
-        <v>-87.728999999999999</v>
+        <v>-23.815000000000001</v>
       </c>
       <c r="X19">
-        <v>-114.616</v>
+        <v>-102.185</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-132.00200000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>285.34500000000003</v>
+        <v>139.37</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>179.45400000000001</v>
+        <v>161.41200000000001</v>
       </c>
       <c r="D20">
-        <v>3144.5079999999998</v>
+        <v>2172.4969999999998</v>
       </c>
       <c r="E20">
-        <v>1620.194</v>
+        <v>1225.423</v>
       </c>
       <c r="F20">
-        <v>727.71699999999998</v>
+        <v>470.46899999999999</v>
       </c>
       <c r="G20">
-        <v>5440.9449999999997</v>
+        <v>2755.7069999999999</v>
       </c>
       <c r="H20">
-        <v>12279.281999999999</v>
+        <v>6860.7030000000004</v>
       </c>
       <c r="I20">
-        <v>1092.1379999999999</v>
+        <v>569.04700000000003</v>
       </c>
       <c r="J20">
-        <v>2723.96</v>
+        <v>938.42399999999998</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.016</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,164 +2386,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2349.12</v>
+        <v>1300.8240000000001</v>
       </c>
       <c r="O20">
-        <v>7171.7129999999997</v>
+        <v>3520.556</v>
       </c>
       <c r="P20">
-        <v>2947.1019999999999</v>
+        <v>970.38599999999997</v>
       </c>
       <c r="Q20">
-        <v>163.571</v>
+        <v>231.79599999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>54754</v>
+        <v>50638</v>
       </c>
       <c r="T20">
-        <v>5107.5690000000004</v>
+        <v>3340.1469999999999</v>
       </c>
       <c r="U20">
-        <v>1180.5840000000001</v>
+        <v>336.08</v>
       </c>
       <c r="V20">
-        <v>510.89100000000002</v>
+        <v>355.10700000000003</v>
       </c>
       <c r="W20">
-        <v>-87.644999999999996</v>
+        <v>-23.731999999999999</v>
       </c>
       <c r="X20">
-        <v>-582.82100000000003</v>
+        <v>-53.429000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>271.82</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>179.45400000000001</v>
+        <v>161.41200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>194.97800000000001</v>
+        <v>172.732</v>
       </c>
       <c r="D21">
-        <v>2869.348</v>
+        <v>2113.5509999999999</v>
       </c>
       <c r="E21">
-        <v>1561.0540000000001</v>
+        <v>1242.2950000000001</v>
       </c>
       <c r="F21">
-        <v>683.11699999999996</v>
+        <v>459.77300000000002</v>
       </c>
       <c r="G21">
-        <v>5327.902</v>
+        <v>2729.4229999999998</v>
       </c>
       <c r="H21">
-        <v>12001.554</v>
+        <v>6988.348</v>
       </c>
       <c r="I21">
-        <v>1014.265</v>
+        <v>536.92899999999997</v>
       </c>
       <c r="J21">
-        <v>2725.4090000000001</v>
+        <v>927.16499999999996</v>
       </c>
       <c r="K21">
-        <v>406.8</v>
+        <v>20.978000000000002</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-2.407</v>
+        <v>-180.529</v>
       </c>
       <c r="N21">
-        <v>2550.0410000000002</v>
+        <v>1273.027</v>
       </c>
       <c r="O21">
-        <v>7146.8029999999999</v>
+        <v>3493.5949999999998</v>
       </c>
       <c r="P21">
-        <v>3356.0590000000002</v>
+        <v>948.14300000000003</v>
       </c>
       <c r="Q21">
-        <v>-206.316</v>
+        <v>-93.15</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4854.7510000000002</v>
+        <v>3494.7530000000002</v>
       </c>
       <c r="U21">
-        <v>974.26800000000003</v>
+        <v>242.93</v>
       </c>
       <c r="V21">
-        <v>19.939</v>
+        <v>207.733</v>
       </c>
       <c r="W21">
-        <v>-85.986999999999995</v>
+        <v>-27.355</v>
       </c>
       <c r="X21">
-        <v>-0.63500000000000001</v>
+        <v>-199.03899999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-58.767000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>194.97800000000001</v>
+        <v>172.732</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>182.982</v>
+        <v>129.024</v>
       </c>
       <c r="D22">
-        <v>2705.59</v>
+        <v>2157.5369999999998</v>
       </c>
       <c r="E22">
-        <v>1419.934</v>
+        <v>1250.4480000000001</v>
       </c>
       <c r="F22">
-        <v>583.22400000000005</v>
+        <v>455.76799999999997</v>
       </c>
       <c r="G22">
-        <v>5151.0110000000004</v>
+        <v>2902.768</v>
       </c>
       <c r="H22">
-        <v>11754.091</v>
+        <v>7795.7969999999996</v>
       </c>
       <c r="I22">
-        <v>948.15700000000004</v>
+        <v>584.34699999999998</v>
       </c>
       <c r="J22">
-        <v>2724.86</v>
+        <v>1082.5840000000001</v>
       </c>
       <c r="K22">
-        <v>574.29999999999995</v>
+        <v>534.423</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2368.0990000000002</v>
+        <v>1746.885</v>
       </c>
       <c r="O22">
-        <v>6951.37</v>
+        <v>4188.4250000000002</v>
       </c>
       <c r="P22">
-        <v>3299.1619999999998</v>
+        <v>1617.0070000000001</v>
       </c>
       <c r="Q22">
-        <v>73.225999999999999</v>
+        <v>70.408000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>4802.7209999999995</v>
+        <v>3607.3719999999998</v>
       </c>
       <c r="U22">
-        <v>1047.4939999999999</v>
+        <v>313.33800000000002</v>
       </c>
       <c r="V22">
-        <v>342.70800000000003</v>
+        <v>212.45400000000001</v>
       </c>
       <c r="W22">
-        <v>-85.680999999999997</v>
+        <v>-27.314</v>
       </c>
       <c r="X22">
-        <v>-224.53</v>
+        <v>580.97900000000004</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11.403</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>182.982</v>
+        <v>129.024</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>187.084</v>
+        <v>177.523</v>
       </c>
       <c r="D23">
-        <v>2828.665</v>
+        <v>2498.0680000000002</v>
       </c>
       <c r="E23">
-        <v>1587.7850000000001</v>
+        <v>1452.7829999999999</v>
       </c>
       <c r="F23">
-        <v>640.89200000000005</v>
+        <v>550.16300000000001</v>
       </c>
       <c r="G23">
-        <v>5456.8389999999999</v>
+        <v>3000.6779999999999</v>
       </c>
       <c r="H23">
-        <v>12069.401</v>
+        <v>7972.5169999999998</v>
       </c>
       <c r="I23">
-        <v>999.15899999999999</v>
+        <v>619.55799999999999</v>
       </c>
       <c r="J23">
-        <v>2675</v>
+        <v>1054.498</v>
       </c>
       <c r="K23">
-        <v>523.34100000000001</v>
+        <v>365.30599999999998</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2500.6190000000001</v>
+        <v>1720.826</v>
       </c>
       <c r="O23">
-        <v>7042.4179999999997</v>
+        <v>4152.3959999999997</v>
       </c>
       <c r="P23">
-        <v>3251.6210000000001</v>
+        <v>1419.8040000000001</v>
       </c>
       <c r="Q23">
-        <v>-12.523</v>
+        <v>-62.597999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5026.9830000000002</v>
+        <v>3820.1210000000001</v>
       </c>
       <c r="U23">
-        <v>1034.971</v>
+        <v>250.74</v>
       </c>
       <c r="V23">
-        <v>341.91899999999998</v>
+        <v>189.84700000000001</v>
       </c>
       <c r="W23">
-        <v>-85.183000000000007</v>
+        <v>-27.431999999999999</v>
       </c>
       <c r="X23">
-        <v>-190.53700000000001</v>
+        <v>-219.14400000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-166.81299999999999</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>187.084</v>
+        <v>177.523</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>241.79599999999999</v>
+        <v>193.88800000000001</v>
       </c>
       <c r="D24">
-        <v>2957.15</v>
+        <v>2616.732</v>
       </c>
       <c r="E24">
-        <v>1593.92</v>
+        <v>1592.3230000000001</v>
       </c>
       <c r="F24">
-        <v>706.33299999999997</v>
+        <v>572.04600000000005</v>
       </c>
       <c r="G24">
-        <v>5207.7870000000003</v>
+        <v>3138.9780000000001</v>
       </c>
       <c r="H24">
-        <v>12034.142</v>
+        <v>8173.4319999999998</v>
       </c>
       <c r="I24">
-        <v>1034.5889999999999</v>
+        <v>770.66499999999996</v>
       </c>
       <c r="J24">
-        <v>2652.4569999999999</v>
+        <v>1059.461</v>
       </c>
       <c r="K24">
-        <v>303.7</v>
+        <v>72.039000000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,164 +2718,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2365.8879999999999</v>
+        <v>1681.105</v>
       </c>
       <c r="O24">
-        <v>7455.4639999999999</v>
+        <v>3932.2289999999998</v>
       </c>
       <c r="P24">
-        <v>3014.2440000000001</v>
+        <v>1131.5</v>
       </c>
       <c r="Q24">
-        <v>186.68199999999999</v>
+        <v>-79.186999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>48950</v>
+        <v>57073</v>
       </c>
       <c r="T24">
-        <v>4578.6779999999999</v>
+        <v>4241.2030000000004</v>
       </c>
       <c r="U24">
-        <v>1221.653</v>
+        <v>171.553</v>
       </c>
       <c r="V24">
-        <v>506.21199999999999</v>
+        <v>344.60500000000002</v>
       </c>
       <c r="W24">
-        <v>-85.072000000000003</v>
+        <v>-27.542000000000002</v>
       </c>
       <c r="X24">
-        <v>-427.65600000000001</v>
+        <v>-356.988</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>163.346</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>241.79599999999999</v>
+        <v>193.88800000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>210.12899999999999</v>
+        <v>210.584</v>
       </c>
       <c r="D25">
-        <v>2743.1309999999999</v>
+        <v>2551.5729999999999</v>
       </c>
       <c r="E25">
-        <v>1498.384</v>
+        <v>1569.479</v>
       </c>
       <c r="F25">
-        <v>645.14499999999998</v>
+        <v>607.52200000000005</v>
       </c>
       <c r="G25">
-        <v>5281.8779999999997</v>
+        <v>3188.828</v>
       </c>
       <c r="H25">
-        <v>11970.914000000001</v>
+        <v>8324.4830000000002</v>
       </c>
       <c r="I25">
-        <v>1017.905</v>
+        <v>724.35199999999998</v>
       </c>
       <c r="J25">
-        <v>2653.0079999999998</v>
+        <v>1046.463</v>
       </c>
       <c r="K25">
-        <v>595.95600000000002</v>
+        <v>269.077</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-1.1220000000000001</v>
+        <v>-5.798</v>
       </c>
       <c r="N25">
-        <v>2494.2379999999998</v>
+        <v>1807.4860000000001</v>
       </c>
       <c r="O25">
-        <v>7320.3249999999998</v>
+        <v>4054.4160000000002</v>
       </c>
       <c r="P25">
-        <v>3248.9639999999999</v>
+        <v>1315.54</v>
       </c>
       <c r="Q25">
-        <v>172.197</v>
+        <v>4.3010000000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4650.5889999999999</v>
+        <v>4270.067</v>
       </c>
       <c r="U25">
-        <v>1393.85</v>
+        <v>175.85400000000001</v>
       </c>
       <c r="V25">
-        <v>113.932</v>
+        <v>114.5</v>
       </c>
       <c r="W25">
-        <v>-84.475999999999999</v>
+        <v>-31.036999999999999</v>
       </c>
       <c r="X25">
-        <v>15.461</v>
+        <v>-17.82</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>101.718</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>210.12899999999999</v>
+        <v>210.584</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>241.30500000000001</v>
+        <v>192.96700000000001</v>
       </c>
       <c r="D26">
-        <v>2670.8040000000001</v>
+        <v>2511.152</v>
       </c>
       <c r="E26">
-        <v>1411.0740000000001</v>
+        <v>1524.24</v>
       </c>
       <c r="F26">
-        <v>632.92600000000004</v>
+        <v>578.798</v>
       </c>
       <c r="G26">
-        <v>5247.8389999999999</v>
+        <v>3176.2469999999998</v>
       </c>
       <c r="H26">
-        <v>11731.612999999999</v>
+        <v>8456.2950000000001</v>
       </c>
       <c r="I26">
-        <v>997.18899999999996</v>
+        <v>700.97299999999996</v>
       </c>
       <c r="J26">
-        <v>2653.56</v>
+        <v>1066.33</v>
       </c>
       <c r="K26">
-        <v>581.48699999999997</v>
+        <v>439.18</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2425.4740000000002</v>
+        <v>1918.7829999999999</v>
       </c>
       <c r="O26">
-        <v>7200.6350000000002</v>
+        <v>4139.2299999999996</v>
       </c>
       <c r="P26">
-        <v>3235.047</v>
+        <v>1505.51</v>
       </c>
       <c r="Q26">
-        <v>126.886</v>
+        <v>-18.756</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>4530.9780000000001</v>
+        <v>4317.0649999999996</v>
       </c>
       <c r="U26">
-        <v>1520.7360000000001</v>
+        <v>157.09800000000001</v>
       </c>
       <c r="V26">
-        <v>290.24400000000003</v>
+        <v>193.14699999999999</v>
       </c>
       <c r="W26">
-        <v>-84.176000000000002</v>
+        <v>-30.155000000000001</v>
       </c>
       <c r="X26">
-        <v>-156.136</v>
+        <v>-49.805999999999997</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>11.015000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>241.30500000000001</v>
+        <v>192.96700000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>238.673</v>
+        <v>209.309</v>
       </c>
       <c r="D27">
-        <v>3119.1390000000001</v>
+        <v>2780.9690000000001</v>
       </c>
       <c r="E27">
-        <v>1869.3030000000001</v>
+        <v>1717.153</v>
       </c>
       <c r="F27">
-        <v>745.69100000000003</v>
+        <v>620.70500000000004</v>
       </c>
       <c r="G27">
-        <v>4619.1540000000005</v>
+        <v>3368.3119999999999</v>
       </c>
       <c r="H27">
-        <v>15325.333000000001</v>
+        <v>8708.5370000000003</v>
       </c>
       <c r="I27">
-        <v>1209.3510000000001</v>
+        <v>734.80100000000004</v>
       </c>
       <c r="J27">
-        <v>5255.1559999999999</v>
+        <v>1115.9870000000001</v>
       </c>
       <c r="K27">
-        <v>776.15899999999999</v>
+        <v>293.45600000000002</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>3048.4409999999998</v>
+        <v>1896.761</v>
       </c>
       <c r="O27">
-        <v>10577.607</v>
+        <v>4188.0950000000003</v>
       </c>
       <c r="P27">
-        <v>6031.3149999999996</v>
+        <v>1409.443</v>
       </c>
       <c r="Q27">
-        <v>-701.173</v>
+        <v>26.629000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4747.7259999999997</v>
+        <v>4520.442</v>
       </c>
       <c r="U27">
-        <v>819.56299999999999</v>
+        <v>183.727</v>
       </c>
       <c r="V27">
-        <v>385.11700000000002</v>
+        <v>229.232</v>
       </c>
       <c r="W27">
-        <v>-88.171000000000006</v>
+        <v>-29.995000000000001</v>
       </c>
       <c r="X27">
-        <v>2309.027</v>
+        <v>-131.01599999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>700.42700000000002</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>238.673</v>
+        <v>209.309</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>293.30500000000001</v>
+        <v>217.18600000000001</v>
       </c>
       <c r="D28">
-        <v>3496.2379999999998</v>
+        <v>2874.3649999999998</v>
       </c>
       <c r="E28">
-        <v>1930.751</v>
+        <v>1737.748</v>
       </c>
       <c r="F28">
-        <v>852.52</v>
+        <v>653.101</v>
       </c>
       <c r="G28">
-        <v>4779.7179999999998</v>
+        <v>3386.1750000000002</v>
       </c>
       <c r="H28">
-        <v>15489.904</v>
+        <v>8441.4130000000005</v>
       </c>
       <c r="I28">
-        <v>1300.4960000000001</v>
+        <v>788.56</v>
       </c>
       <c r="J28">
-        <v>4861.8950000000004</v>
+        <v>1089.9159999999999</v>
       </c>
       <c r="K28">
-        <v>534.20000000000005</v>
+        <v>136.36500000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,164 +3050,164 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3395.86</v>
+        <v>1925.2449999999999</v>
       </c>
       <c r="O28">
-        <v>10222.558000000001</v>
+        <v>3729.748</v>
       </c>
       <c r="P28">
-        <v>5870.36</v>
+        <v>1285.3</v>
       </c>
       <c r="Q28">
-        <v>65.322999999999993</v>
+        <v>-11.021000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>56690</v>
+        <v>57338</v>
       </c>
       <c r="T28">
-        <v>5267.3459999999995</v>
+        <v>4711.665</v>
       </c>
       <c r="U28">
-        <v>884.88599999999997</v>
+        <v>172.70599999999999</v>
       </c>
       <c r="V28">
-        <v>513.178</v>
+        <v>420.02600000000001</v>
       </c>
       <c r="W28">
-        <v>-88.218999999999994</v>
+        <v>-30.076000000000001</v>
       </c>
       <c r="X28">
-        <v>-385.72399999999999</v>
+        <v>-181.785</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.49199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>293.30500000000001</v>
+        <v>217.18600000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>285.39699999999999</v>
+        <v>229.59700000000001</v>
       </c>
       <c r="D29">
-        <v>3364.6509999999998</v>
+        <v>2787.2559999999999</v>
       </c>
       <c r="E29">
-        <v>1922.288</v>
+        <v>1784.7840000000001</v>
       </c>
       <c r="F29">
-        <v>850.47199999999998</v>
+        <v>664.95899999999995</v>
       </c>
       <c r="G29">
-        <v>5004.6180000000004</v>
+        <v>3524.424</v>
       </c>
       <c r="H29">
-        <v>15731.279</v>
+        <v>8692.9930000000004</v>
       </c>
       <c r="I29">
-        <v>1304.26</v>
+        <v>779.274</v>
       </c>
       <c r="J29">
-        <v>4788.1469999999999</v>
+        <v>1117.6769999999999</v>
       </c>
       <c r="K29">
-        <v>1144.0540000000001</v>
+        <v>580.54200000000003</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-6.5220000000000002</v>
+        <v>-4.532</v>
       </c>
       <c r="N29">
-        <v>3467.1239999999998</v>
+        <v>2244.9389999999999</v>
       </c>
       <c r="O29">
-        <v>10200.620000000001</v>
+        <v>4146.8649999999998</v>
       </c>
       <c r="P29">
-        <v>5932.201</v>
+        <v>1698.2190000000001</v>
       </c>
       <c r="Q29">
-        <v>-10.119999999999999</v>
+        <v>15.211</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5530.6589999999997</v>
+        <v>4546.1279999999997</v>
       </c>
       <c r="U29">
-        <v>874.76599999999996</v>
+        <v>187.917</v>
       </c>
       <c r="V29">
-        <v>238</v>
+        <v>268.90100000000001</v>
       </c>
       <c r="W29">
-        <v>-88.103999999999999</v>
+        <v>-36.543999999999997</v>
       </c>
       <c r="X29">
-        <v>-135.41300000000001</v>
+        <v>-158.565</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-57.753999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>285.39699999999999</v>
+        <v>229.59700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>56.158999999999999</v>
+        <v>211.863</v>
       </c>
       <c r="D30">
-        <v>3370.6729999999998</v>
+        <v>2829.06</v>
       </c>
       <c r="E30">
-        <v>1857.2819999999999</v>
+        <v>1745.683</v>
       </c>
       <c r="F30">
-        <v>819.88099999999997</v>
+        <v>634.923</v>
       </c>
       <c r="G30">
-        <v>5286.3590000000004</v>
+        <v>3621.58</v>
       </c>
       <c r="H30">
-        <v>15965.181</v>
+        <v>9217.5059999999994</v>
       </c>
       <c r="I30">
-        <v>1229.336</v>
+        <v>756.495</v>
       </c>
       <c r="J30">
-        <v>4798.3710000000001</v>
+        <v>1151.4690000000001</v>
       </c>
       <c r="K30">
-        <v>1248.212</v>
+        <v>865.05799999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3537.703</v>
+        <v>2496.4879999999998</v>
       </c>
       <c r="O30">
-        <v>10445.971</v>
+        <v>4440.2700000000004</v>
       </c>
       <c r="P30">
-        <v>6046.5829999999996</v>
+        <v>2016.527</v>
       </c>
       <c r="Q30">
-        <v>150.00399999999999</v>
+        <v>9.7330000000000005</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>5519.21</v>
+        <v>4777.2359999999999</v>
       </c>
       <c r="U30">
-        <v>1024.77</v>
+        <v>197.65</v>
       </c>
       <c r="V30">
-        <v>218.774</v>
+        <v>204.7</v>
       </c>
       <c r="W30">
-        <v>-88.082999999999998</v>
+        <v>-35.323</v>
       </c>
       <c r="X30">
-        <v>-47.411000000000001</v>
+        <v>281.09899999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-7.8449999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>56.158999999999999</v>
+        <v>211.863</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>365.98899999999998</v>
+        <v>255.441</v>
       </c>
       <c r="D31">
-        <v>3749.5909999999999</v>
+        <v>3182.5369999999998</v>
       </c>
       <c r="E31">
-        <v>2146.4079999999999</v>
+        <v>1985.894</v>
       </c>
       <c r="F31">
-        <v>939.298</v>
+        <v>736.42</v>
       </c>
       <c r="G31">
-        <v>5563.0959999999995</v>
+        <v>3872.174</v>
       </c>
       <c r="H31">
-        <v>16237.484</v>
+        <v>9609.1769999999997</v>
       </c>
       <c r="I31">
-        <v>1376.4570000000001</v>
+        <v>879.16899999999998</v>
       </c>
       <c r="J31">
-        <v>4818.57</v>
+        <v>1189.7360000000001</v>
       </c>
       <c r="K31">
-        <v>1055.527</v>
+        <v>621.16800000000001</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>3508.5169999999998</v>
+        <v>2487.2860000000001</v>
       </c>
       <c r="O31">
-        <v>10361.200999999999</v>
+        <v>4490.1840000000002</v>
       </c>
       <c r="P31">
-        <v>5874.0969999999998</v>
+        <v>1810.904</v>
       </c>
       <c r="Q31">
-        <v>64.759</v>
+        <v>-15.516</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5876.2830000000004</v>
+        <v>5118.9930000000004</v>
       </c>
       <c r="U31">
-        <v>1089.529</v>
+        <v>182.13399999999999</v>
       </c>
       <c r="V31">
-        <v>444.464</v>
+        <v>390.17099999999999</v>
       </c>
       <c r="W31">
-        <v>-88.03</v>
+        <v>-35.21</v>
       </c>
       <c r="X31">
-        <v>-352.70400000000001</v>
+        <v>-336.51</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>7.3710000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>365.98899999999998</v>
+        <v>255.441</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>353.25599999999997</v>
+        <v>252.565</v>
       </c>
       <c r="D32">
-        <v>3817.4769999999999</v>
+        <v>3346.752</v>
       </c>
       <c r="E32">
-        <v>2145.5169999999998</v>
+        <v>2046.7260000000001</v>
       </c>
       <c r="F32">
-        <v>999.94500000000005</v>
+        <v>771.63</v>
       </c>
       <c r="G32">
-        <v>5085.2380000000003</v>
+        <v>4095.625</v>
       </c>
       <c r="H32">
-        <v>15320.087</v>
+        <v>10386.853999999999</v>
       </c>
       <c r="I32">
-        <v>1430.306</v>
+        <v>961.88599999999997</v>
       </c>
       <c r="J32">
-        <v>4318.5590000000002</v>
+        <v>1952.452</v>
       </c>
       <c r="K32">
-        <v>538.05499999999995</v>
+        <v>95.111999999999995</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,164 +3382,164 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3197.4830000000002</v>
+        <v>2183.2559999999999</v>
       </c>
       <c r="O32">
-        <v>9454.5939999999991</v>
+        <v>5127.8829999999998</v>
       </c>
       <c r="P32">
-        <v>4957.0249999999996</v>
+        <v>2071.3159999999998</v>
       </c>
       <c r="Q32">
-        <v>-267.392</v>
+        <v>143.91399999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>57170</v>
+        <v>61722</v>
       </c>
       <c r="T32">
-        <v>5865.4930000000004</v>
+        <v>5258.9709999999995</v>
       </c>
       <c r="U32">
-        <v>822.13699999999994</v>
+        <v>326.048</v>
       </c>
       <c r="V32">
-        <v>695.46199999999999</v>
+        <v>452.83800000000002</v>
       </c>
       <c r="W32">
-        <v>-100.95699999999999</v>
+        <v>-35.183</v>
       </c>
       <c r="X32">
-        <v>-1146.444</v>
+        <v>215.19800000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>61.526000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>353.25599999999997</v>
+        <v>252.565</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>375.71100000000001</v>
+        <v>250.17599999999999</v>
       </c>
       <c r="D33">
-        <v>3479.2939999999999</v>
+        <v>3064.6880000000001</v>
       </c>
       <c r="E33">
-        <v>2081.7919999999999</v>
+        <v>1821.681</v>
       </c>
       <c r="F33">
-        <v>888.87</v>
+        <v>727.46600000000001</v>
       </c>
       <c r="G33">
-        <v>5298.0820000000003</v>
+        <v>4157.1180000000004</v>
       </c>
       <c r="H33">
-        <v>15425.041999999999</v>
+        <v>10132.556</v>
       </c>
       <c r="I33">
-        <v>1404.7159999999999</v>
+        <v>836.87300000000005</v>
       </c>
       <c r="J33">
-        <v>4313.2209999999995</v>
+        <v>1878.933</v>
       </c>
       <c r="K33">
-        <v>796.86099999999999</v>
+        <v>677.89</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-100.107</v>
+        <v>-6.2869999999999999</v>
       </c>
       <c r="N33">
-        <v>3308.5210000000002</v>
+        <v>2542.627</v>
       </c>
       <c r="O33">
-        <v>9317.9359999999997</v>
+        <v>5388.6880000000001</v>
       </c>
       <c r="P33">
-        <v>5110.0820000000003</v>
+        <v>2556.8229999999999</v>
       </c>
       <c r="Q33">
-        <v>129.98500000000001</v>
+        <v>282.279</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>6107.1059999999998</v>
+        <v>4743.8680000000004</v>
       </c>
       <c r="U33">
-        <v>952.12199999999996</v>
+        <v>608.327</v>
       </c>
       <c r="V33">
-        <v>159.38800000000001</v>
+        <v>307.34699999999998</v>
       </c>
       <c r="W33">
-        <v>-100.869</v>
+        <v>-41.109000000000002</v>
       </c>
       <c r="X33">
-        <v>-7.2469999999999999</v>
+        <v>109.85899999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>11.282999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>375.71100000000001</v>
+        <v>250.17599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>311.73700000000002</v>
+        <v>155.40100000000001</v>
       </c>
       <c r="D34">
-        <v>3472.0450000000001</v>
+        <v>2688.6559999999999</v>
       </c>
       <c r="E34">
-        <v>1957.972</v>
+        <v>1682.338</v>
       </c>
       <c r="F34">
-        <v>873.375</v>
+        <v>576.80600000000004</v>
       </c>
       <c r="G34">
-        <v>5334.7359999999999</v>
+        <v>3678.6080000000002</v>
       </c>
       <c r="H34">
-        <v>15307.687</v>
+        <v>10115.191000000001</v>
       </c>
       <c r="I34">
-        <v>1307.1780000000001</v>
+        <v>751.94200000000001</v>
       </c>
       <c r="J34">
-        <v>4303.3310000000001</v>
+        <v>1882.693</v>
       </c>
       <c r="K34">
-        <v>1144.347</v>
+        <v>1022.112</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3508.9340000000002</v>
+        <v>2667.6990000000001</v>
       </c>
       <c r="O34">
-        <v>9486.5210000000006</v>
+        <v>5533.51</v>
       </c>
       <c r="P34">
-        <v>5447.6779999999999</v>
+        <v>2904.8049999999998</v>
       </c>
       <c r="Q34">
-        <v>95.263000000000005</v>
+        <v>-346.33699999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>5821.1660000000002</v>
+        <v>4581.6809999999996</v>
       </c>
       <c r="U34">
-        <v>1047.385</v>
+        <v>261.99</v>
       </c>
       <c r="V34">
-        <v>381.65199999999999</v>
+        <v>137.16800000000001</v>
       </c>
       <c r="W34">
-        <v>-99.59</v>
+        <v>-40.222000000000001</v>
       </c>
       <c r="X34">
-        <v>-252.73599999999999</v>
+        <v>290.15800000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.30399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>311.73700000000002</v>
+        <v>155.40100000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>411.24799999999999</v>
+        <v>53.421999999999997</v>
       </c>
       <c r="D35">
-        <v>3687.518</v>
+        <v>2344.7130000000002</v>
       </c>
       <c r="E35">
-        <v>2142.6320000000001</v>
+        <v>1532.232</v>
       </c>
       <c r="F35">
-        <v>923.774</v>
+        <v>454.40600000000001</v>
       </c>
       <c r="G35">
-        <v>5537.7910000000002</v>
+        <v>3311.4639999999999</v>
       </c>
       <c r="H35">
-        <v>15477.934999999999</v>
+        <v>9567.51</v>
       </c>
       <c r="I35">
-        <v>1423.6590000000001</v>
+        <v>658.77499999999998</v>
       </c>
       <c r="J35">
-        <v>4284.2349999999997</v>
+        <v>1849.2860000000001</v>
       </c>
       <c r="K35">
-        <v>1017.278</v>
+        <v>747.85900000000004</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>3548.95</v>
+        <v>2306.529</v>
       </c>
       <c r="O35">
-        <v>9461.8870000000006</v>
+        <v>5098.8580000000002</v>
       </c>
       <c r="P35">
-        <v>5301.5129999999999</v>
+        <v>2597.145</v>
       </c>
       <c r="Q35">
-        <v>51.344000000000001</v>
+        <v>-95.441999999999993</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6016.0479999999998</v>
+        <v>4468.652</v>
       </c>
       <c r="U35">
-        <v>1098.729</v>
+        <v>166.548</v>
       </c>
       <c r="V35">
-        <v>551.55700000000002</v>
+        <v>271.57900000000001</v>
       </c>
       <c r="W35">
-        <v>-98.483000000000004</v>
+        <v>-40.127000000000002</v>
       </c>
       <c r="X35">
-        <v>-430.20100000000002</v>
+        <v>-318.86500000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-38.22</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>411.24799999999999</v>
+        <v>53.421999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>413.66800000000001</v>
+        <v>49.515999999999998</v>
       </c>
       <c r="D36">
-        <v>3681.4670000000001</v>
+        <v>2210.9580000000001</v>
       </c>
       <c r="E36">
-        <v>2153.7800000000002</v>
+        <v>1417.3050000000001</v>
       </c>
       <c r="F36">
-        <v>945.53899999999999</v>
+        <v>409.089</v>
       </c>
       <c r="G36">
-        <v>7673.0860000000002</v>
+        <v>3123.7809999999999</v>
       </c>
       <c r="H36">
-        <v>17576.689999999999</v>
+        <v>9855.902</v>
       </c>
       <c r="I36">
-        <v>1413.155</v>
+        <v>649.71799999999996</v>
       </c>
       <c r="J36">
-        <v>6520.8310000000001</v>
+        <v>1839.7049999999999</v>
       </c>
       <c r="K36">
-        <v>586.78599999999994</v>
+        <v>431.04399999999998</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,164 +3714,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3151.7730000000001</v>
+        <v>2005.7539999999999</v>
       </c>
       <c r="O36">
-        <v>11608.538</v>
+        <v>5505.4620000000004</v>
       </c>
       <c r="P36">
-        <v>7107.8450000000003</v>
+        <v>2321.172</v>
       </c>
       <c r="Q36">
-        <v>2121.038</v>
+        <v>21.062999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>55610</v>
+        <v>51639</v>
       </c>
       <c r="T36">
-        <v>5968.152</v>
+        <v>4350.4399999999996</v>
       </c>
       <c r="U36">
-        <v>3219.7669999999998</v>
+        <v>187.61099999999999</v>
       </c>
       <c r="V36">
-        <v>637.54300000000001</v>
+        <v>413.09800000000001</v>
       </c>
       <c r="W36">
-        <v>-113.462</v>
+        <v>-40.116999999999997</v>
       </c>
       <c r="X36">
-        <v>1592.49</v>
+        <v>-355.5</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-80.239000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>413.66800000000001</v>
+        <v>49.515999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>338.89800000000002</v>
+        <v>73.492999999999995</v>
       </c>
       <c r="D37">
-        <v>3334.511</v>
+        <v>2237.165</v>
       </c>
       <c r="E37">
-        <v>2008.6690000000001</v>
+        <v>1452.4939999999999</v>
       </c>
       <c r="F37">
-        <v>858.11500000000001</v>
+        <v>416.92</v>
       </c>
       <c r="G37">
-        <v>8138.0789999999997</v>
+        <v>3133.491</v>
       </c>
       <c r="H37">
-        <v>19568.589</v>
+        <v>9937.1730000000007</v>
       </c>
       <c r="I37">
-        <v>1287.42</v>
+        <v>659.76400000000001</v>
       </c>
       <c r="J37">
-        <v>7366.9120000000003</v>
+        <v>1855.5309999999999</v>
       </c>
       <c r="K37">
-        <v>1736.779</v>
+        <v>304.08300000000003</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-190.983</v>
       </c>
       <c r="M37">
-        <v>-3.4660000000000002</v>
+        <v>-6.9749999999999996</v>
       </c>
       <c r="N37">
-        <v>4157.3280000000004</v>
+        <v>1835.337</v>
       </c>
       <c r="O37">
-        <v>13465.797</v>
+        <v>5367.56</v>
       </c>
       <c r="P37">
-        <v>9239.6880000000001</v>
+        <v>2159.614</v>
       </c>
       <c r="Q37">
-        <v>407.62599999999998</v>
+        <v>2.238</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6102.7920000000004</v>
+        <v>4569.6130000000003</v>
       </c>
       <c r="U37">
-        <v>3627.393</v>
+        <v>189.84899999999999</v>
       </c>
       <c r="V37">
-        <v>449.13099999999997</v>
+        <v>260.053</v>
       </c>
       <c r="W37">
-        <v>-113.352</v>
+        <v>-40.170999999999999</v>
       </c>
       <c r="X37">
-        <v>1838.377</v>
+        <v>-238.696</v>
       </c>
       <c r="Y37">
-        <v>97.338999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-133.50700000000001</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>338.89800000000002</v>
+        <v>73.492999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>204.47399999999999</v>
+        <v>104.54600000000001</v>
       </c>
       <c r="D38">
-        <v>3497.9740000000002</v>
+        <v>2354.7080000000001</v>
       </c>
       <c r="E38">
-        <v>2000.1679999999999</v>
+        <v>1368.4490000000001</v>
       </c>
       <c r="F38">
-        <v>872.20899999999995</v>
+        <v>485.22699999999998</v>
       </c>
       <c r="G38">
-        <v>5661.1509999999998</v>
+        <v>3058.498</v>
       </c>
       <c r="H38">
-        <v>21043.989000000001</v>
+        <v>9794.1890000000003</v>
       </c>
       <c r="I38">
-        <v>1311.7329999999999</v>
+        <v>692.721</v>
       </c>
       <c r="J38">
-        <v>8141.22</v>
+        <v>1554.088</v>
       </c>
       <c r="K38">
-        <v>1604.318</v>
+        <v>389.71499999999997</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4091.1219999999998</v>
+        <v>1916.038</v>
       </c>
       <c r="O38">
-        <v>14701.487999999999</v>
+        <v>5156.4030000000002</v>
       </c>
       <c r="P38">
-        <v>9900.6409999999996</v>
+        <v>1943.8030000000001</v>
       </c>
       <c r="Q38">
-        <v>-2679.038</v>
+        <v>44.05</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>6342.5010000000002</v>
+        <v>4637.7860000000001</v>
       </c>
       <c r="U38">
-        <v>948.35500000000002</v>
+        <v>233.899</v>
       </c>
       <c r="V38">
-        <v>376.83699999999999</v>
+        <v>346.197</v>
       </c>
       <c r="W38">
-        <v>-113.306</v>
+        <v>-40.192</v>
       </c>
       <c r="X38">
-        <v>215.928</v>
+        <v>-245.57300000000001</v>
       </c>
       <c r="Y38">
-        <v>112.44199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>142.25</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>204.47399999999999</v>
+        <v>104.54600000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>367.25299999999999</v>
+        <v>153.863</v>
       </c>
       <c r="D39">
-        <v>3702.4319999999998</v>
+        <v>2614.8229999999999</v>
       </c>
       <c r="E39">
-        <v>2202.2179999999998</v>
+        <v>1563.15</v>
       </c>
       <c r="F39">
-        <v>964.73900000000003</v>
+        <v>566.47199999999998</v>
       </c>
       <c r="G39">
-        <v>5481.4260000000004</v>
+        <v>3354.328</v>
       </c>
       <c r="H39">
-        <v>20365.28</v>
+        <v>9858.2479999999996</v>
       </c>
       <c r="I39">
-        <v>1422.011</v>
+        <v>785.24400000000003</v>
       </c>
       <c r="J39">
-        <v>8097.9219999999996</v>
+        <v>1535.905</v>
       </c>
       <c r="K39">
-        <v>1035.191</v>
+        <v>366.68400000000003</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>3673.6089999999999</v>
+        <v>2071.9749999999999</v>
       </c>
       <c r="O39">
-        <v>14057.852999999999</v>
+        <v>5162.7039999999997</v>
       </c>
       <c r="P39">
-        <v>9271.2960000000003</v>
+        <v>1902.5889999999999</v>
       </c>
       <c r="Q39">
-        <v>-250.738</v>
+        <v>146.66200000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6307.4269999999997</v>
+        <v>4695.5439999999999</v>
       </c>
       <c r="U39">
-        <v>697.61699999999996</v>
+        <v>380.56099999999998</v>
       </c>
       <c r="V39">
-        <v>464.89100000000002</v>
+        <v>235.14699999999999</v>
       </c>
       <c r="W39">
-        <v>-113.214</v>
+        <v>-40.423000000000002</v>
       </c>
       <c r="X39">
-        <v>-781.56</v>
+        <v>-50.058</v>
       </c>
       <c r="Y39">
-        <v>97.316999999999993</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>49.286000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>367.25299999999999</v>
+        <v>153.863</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>295.71600000000001</v>
+        <v>222.16300000000001</v>
       </c>
       <c r="D40">
-        <v>3160.6030000000001</v>
+        <v>2786.47</v>
       </c>
       <c r="E40">
-        <v>1885.2249999999999</v>
+        <v>1442.654</v>
       </c>
       <c r="F40">
-        <v>841.28399999999999</v>
+        <v>677.58</v>
       </c>
       <c r="G40">
-        <v>4885.2039999999997</v>
+        <v>3588.7959999999998</v>
       </c>
       <c r="H40">
-        <v>19738.188999999998</v>
+        <v>9910.3819999999996</v>
       </c>
       <c r="I40">
-        <v>1111.759</v>
+        <v>888.74300000000005</v>
       </c>
       <c r="J40">
-        <v>7652.2560000000003</v>
+        <v>1413.634</v>
       </c>
       <c r="K40">
-        <v>723.5</v>
+        <v>17.759</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3148.373</v>
+        <v>2204.8910000000001</v>
       </c>
       <c r="O40">
-        <v>13609.66</v>
+        <v>5450.982</v>
       </c>
       <c r="P40">
-        <v>8601.5580000000009</v>
+        <v>1776.9059999999999</v>
       </c>
       <c r="Q40">
-        <v>-12.103</v>
+        <v>194.965</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>50520</v>
+        <v>54794</v>
       </c>
       <c r="T40">
-        <v>6128.5290000000005</v>
+        <v>4459.3999999999996</v>
       </c>
       <c r="U40">
-        <v>685.51400000000001</v>
+        <v>575.52599999999995</v>
       </c>
       <c r="V40">
-        <v>780.09</v>
+        <v>377.42500000000001</v>
       </c>
       <c r="W40">
-        <v>-113.34099999999999</v>
+        <v>-41.753999999999998</v>
       </c>
       <c r="X40">
-        <v>-823.43499999999995</v>
+        <v>-115.669</v>
       </c>
       <c r="Y40">
-        <v>96.445999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>22.712</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>295.71600000000001</v>
+        <v>222.16300000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>321.40899999999999</v>
+        <v>247.17099999999999</v>
       </c>
       <c r="D41">
-        <v>3230.54</v>
+        <v>2829.2730000000001</v>
       </c>
       <c r="E41">
-        <v>1891.4929999999999</v>
+        <v>1694.3130000000001</v>
       </c>
       <c r="F41">
-        <v>858.36199999999997</v>
+        <v>691.399</v>
       </c>
       <c r="G41">
-        <v>4869.4840000000004</v>
+        <v>4147.5959999999995</v>
       </c>
       <c r="H41">
-        <v>19785.917000000001</v>
+        <v>10709.721</v>
       </c>
       <c r="I41">
-        <v>1264.991</v>
+        <v>953.25900000000001</v>
       </c>
       <c r="J41">
-        <v>7057.723</v>
+        <v>1745.8119999999999</v>
       </c>
       <c r="K41">
-        <v>884.45</v>
+        <v>391.303</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-0.53900000000000003</v>
       </c>
       <c r="M41">
-        <v>-671.84199999999998</v>
+        <v>-0.06</v>
       </c>
       <c r="N41">
-        <v>3328.223</v>
+        <v>2282.1039999999998</v>
       </c>
       <c r="O41">
-        <v>13241.668</v>
+        <v>5717.1440000000002</v>
       </c>
       <c r="P41">
-        <v>7942.1729999999998</v>
+        <v>2137.1149999999998</v>
       </c>
       <c r="Q41">
-        <v>56.88</v>
+        <v>348.31</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6544.2489999999998</v>
+        <v>4992.5770000000002</v>
       </c>
       <c r="U41">
-        <v>742.39400000000001</v>
+        <v>923.83600000000001</v>
       </c>
       <c r="V41">
-        <v>737.37400000000002</v>
+        <v>122.88</v>
       </c>
       <c r="W41">
-        <v>-113.542</v>
+        <v>-43.648000000000003</v>
       </c>
       <c r="X41">
-        <v>-692.73400000000004</v>
+        <v>246.999</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>38.381</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>321.40899999999999</v>
+        <v>247.17099999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>230.18</v>
+      </c>
+      <c r="D42">
+        <v>2866.6640000000002</v>
+      </c>
+      <c r="E42">
+        <v>1417.2809999999999</v>
+      </c>
+      <c r="F42">
+        <v>670.93600000000004</v>
+      </c>
+      <c r="G42">
+        <v>4043.94</v>
+      </c>
+      <c r="H42">
+        <v>10618.843999999999</v>
+      </c>
+      <c r="I42">
+        <v>960.56700000000001</v>
+      </c>
+      <c r="J42">
+        <v>1742.4639999999999</v>
+      </c>
+      <c r="K42">
+        <v>101.29300000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1940.8679999999999</v>
+      </c>
+      <c r="O42">
+        <v>5404.2510000000002</v>
+      </c>
+      <c r="P42">
+        <v>1843.7570000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-115.1</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>5214.5929999999998</v>
+      </c>
+      <c r="U42">
+        <v>808.73599999999999</v>
+      </c>
+      <c r="V42">
+        <v>285.27699999999999</v>
+      </c>
+      <c r="W42">
+        <v>-46.984000000000002</v>
+      </c>
+      <c r="X42">
+        <v>-313.37</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>230.18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>279.589</v>
+      </c>
+      <c r="D43">
+        <v>3240.1030000000001</v>
+      </c>
+      <c r="E43">
+        <v>1746.1690000000001</v>
+      </c>
+      <c r="F43">
+        <v>777.02</v>
+      </c>
+      <c r="G43">
+        <v>4691.3289999999997</v>
+      </c>
+      <c r="H43">
+        <v>11376.861999999999</v>
+      </c>
+      <c r="I43">
+        <v>1085.126</v>
+      </c>
+      <c r="J43">
+        <v>1683.731</v>
+      </c>
+      <c r="K43">
+        <v>173.233</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2340.42</v>
+      </c>
+      <c r="O43">
+        <v>5793.1329999999998</v>
+      </c>
+      <c r="P43">
+        <v>1856.9639999999999</v>
+      </c>
+      <c r="Q43">
+        <v>299.21899999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5583.7290000000003</v>
+      </c>
+      <c r="U43">
+        <v>1107.9549999999999</v>
+      </c>
+      <c r="V43">
+        <v>391.77600000000001</v>
+      </c>
+      <c r="W43">
+        <v>-51.999000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-57.302</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>279.589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>292.19</v>
+      </c>
+      <c r="D44">
+        <v>3409.83</v>
+      </c>
+      <c r="E44">
+        <v>1769.665</v>
+      </c>
+      <c r="F44">
+        <v>834.33399999999995</v>
+      </c>
+      <c r="G44">
+        <v>4305.2560000000003</v>
+      </c>
+      <c r="H44">
+        <v>10886.805</v>
+      </c>
+      <c r="I44">
+        <v>1173.8510000000001</v>
+      </c>
+      <c r="J44">
+        <v>1691.086</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2391.0430000000001</v>
+      </c>
+      <c r="O44">
+        <v>5398.4690000000001</v>
+      </c>
+      <c r="P44">
+        <v>1766.357</v>
+      </c>
+      <c r="Q44">
+        <v>-450.48899999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>58409</v>
+      </c>
+      <c r="T44">
+        <v>5488.3360000000002</v>
+      </c>
+      <c r="U44">
+        <v>657.46600000000001</v>
+      </c>
+      <c r="V44">
+        <v>367</v>
+      </c>
+      <c r="W44">
+        <v>-60.155000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-792.10500000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>292.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>297.01799999999997</v>
+      </c>
+      <c r="D45">
+        <v>3233.8809999999999</v>
+      </c>
+      <c r="E45">
+        <v>1684.182</v>
+      </c>
+      <c r="F45">
+        <v>824.89700000000005</v>
+      </c>
+      <c r="G45">
+        <v>3999.3339999999998</v>
+      </c>
+      <c r="H45">
+        <v>10321.59</v>
+      </c>
+      <c r="I45">
+        <v>1120.3389999999999</v>
+      </c>
+      <c r="J45">
+        <v>1668.6</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>-1E-3</v>
+      </c>
+      <c r="M45">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="N45">
+        <v>2235.7089999999998</v>
+      </c>
+      <c r="O45">
+        <v>5208.1019999999999</v>
+      </c>
+      <c r="P45">
+        <v>1747.1469999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-233.11199999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5113.4880000000003</v>
+      </c>
+      <c r="U45">
+        <v>424.35399999999998</v>
+      </c>
+      <c r="V45">
+        <v>309.49599999999998</v>
+      </c>
+      <c r="W45">
+        <v>-56.078000000000003</v>
+      </c>
+      <c r="X45">
+        <v>-431.04</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>297.01799999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>240.76599999999999</v>
+      </c>
+      <c r="D46">
+        <v>3106.8319999999999</v>
+      </c>
+      <c r="E46">
+        <v>1603.0550000000001</v>
+      </c>
+      <c r="F46">
+        <v>726.70399999999995</v>
+      </c>
+      <c r="G46">
+        <v>4043.0230000000001</v>
+      </c>
+      <c r="H46">
+        <v>10327.584000000001</v>
+      </c>
+      <c r="I46">
+        <v>1069.5029999999999</v>
+      </c>
+      <c r="J46">
+        <v>1659.434</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2120.1089999999999</v>
+      </c>
+      <c r="O46">
+        <v>5071.6809999999996</v>
+      </c>
+      <c r="P46">
+        <v>1737.809</v>
+      </c>
+      <c r="Q46">
+        <v>63.63</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>5255.9030000000002</v>
+      </c>
+      <c r="U46">
+        <v>487.98399999999998</v>
+      </c>
+      <c r="V46">
+        <v>253.92</v>
+      </c>
+      <c r="W46">
+        <v>-56.012999999999998</v>
+      </c>
+      <c r="X46">
+        <v>-74.72</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>240.76599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>312.07400000000001</v>
+      </c>
+      <c r="D47">
+        <v>3393.5630000000001</v>
+      </c>
+      <c r="E47">
+        <v>1830.7550000000001</v>
+      </c>
+      <c r="F47">
+        <v>806.56200000000001</v>
+      </c>
+      <c r="G47">
+        <v>4497.3010000000004</v>
+      </c>
+      <c r="H47">
+        <v>10889.124</v>
+      </c>
+      <c r="I47">
+        <v>1148.9390000000001</v>
+      </c>
+      <c r="J47">
+        <v>1515.2170000000001</v>
+      </c>
+      <c r="K47">
+        <v>48.906999999999996</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2489.3000000000002</v>
+      </c>
+      <c r="O47">
+        <v>5302.6559999999999</v>
+      </c>
+      <c r="P47">
+        <v>1789.124</v>
+      </c>
+      <c r="Q47">
+        <v>285.47500000000002</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5586.4679999999998</v>
+      </c>
+      <c r="U47">
+        <v>773.45899999999995</v>
+      </c>
+      <c r="V47">
+        <v>443.04500000000002</v>
+      </c>
+      <c r="W47">
+        <v>-59.015000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-85.069000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>312.07400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>301.96499999999997</v>
+      </c>
+      <c r="D48">
+        <v>3411.6660000000002</v>
+      </c>
+      <c r="E48">
+        <v>1782.443</v>
+      </c>
+      <c r="F48">
+        <v>842.11099999999999</v>
+      </c>
+      <c r="G48">
+        <v>4498.1139999999996</v>
+      </c>
+      <c r="H48">
+        <v>11170.281999999999</v>
+      </c>
+      <c r="I48">
+        <v>1194.684</v>
+      </c>
+      <c r="J48">
+        <v>1503.9459999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2486.0129999999999</v>
+      </c>
+      <c r="O48">
+        <v>6264.5519999999997</v>
+      </c>
+      <c r="P48">
+        <v>1729.5350000000001</v>
+      </c>
+      <c r="Q48">
+        <v>64.858000000000004</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>59331</v>
+      </c>
+      <c r="T48">
+        <v>4905.7299999999996</v>
+      </c>
+      <c r="U48">
+        <v>838.31700000000001</v>
+      </c>
+      <c r="V48">
+        <v>523.92399999999998</v>
+      </c>
+      <c r="W48">
+        <v>-62.061999999999998</v>
+      </c>
+      <c r="X48">
+        <v>-232.691</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>301.96499999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>239.74100000000001</v>
+      </c>
+      <c r="D49">
+        <v>3214.9349999999999</v>
+      </c>
+      <c r="E49">
+        <v>1780.6469999999999</v>
+      </c>
+      <c r="F49">
+        <v>739.49400000000003</v>
+      </c>
+      <c r="G49">
+        <v>4200.0820000000003</v>
+      </c>
+      <c r="H49">
+        <v>11134.578</v>
+      </c>
+      <c r="I49">
+        <v>1162.797</v>
+      </c>
+      <c r="J49">
+        <v>1511.799</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-76.69</v>
+      </c>
+      <c r="N49">
+        <v>2366.4650000000001</v>
+      </c>
+      <c r="O49">
+        <v>5982.5640000000003</v>
+      </c>
+      <c r="P49">
+        <v>1776.3810000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-402.18599999999998</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5152.0140000000001</v>
+      </c>
+      <c r="U49">
+        <v>436.13099999999997</v>
+      </c>
+      <c r="V49">
+        <v>-6.9710000000000001</v>
+      </c>
+      <c r="W49">
+        <v>-61.365000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-171.66800000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>239.74100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>180.96199999999999</v>
+      </c>
+      <c r="D50">
+        <v>3065.4949999999999</v>
+      </c>
+      <c r="E50">
+        <v>1591.8579999999999</v>
+      </c>
+      <c r="F50">
+        <v>645.62099999999998</v>
+      </c>
+      <c r="G50">
+        <v>4095.7469999999998</v>
+      </c>
+      <c r="H50">
+        <v>11461.361000000001</v>
+      </c>
+      <c r="I50">
+        <v>1073.2329999999999</v>
+      </c>
+      <c r="J50">
+        <v>1509.2380000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2488.2600000000002</v>
+      </c>
+      <c r="O50">
+        <v>6132.3720000000003</v>
+      </c>
+      <c r="P50">
+        <v>2019.2439999999999</v>
+      </c>
+      <c r="Q50">
+        <v>61.503999999999998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5328.9889999999996</v>
+      </c>
+      <c r="U50">
+        <v>497.63499999999999</v>
+      </c>
+      <c r="V50">
+        <v>354.30900000000003</v>
+      </c>
+      <c r="W50">
+        <v>-61.235999999999997</v>
+      </c>
+      <c r="X50">
+        <v>114.82</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>180.96199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>256.56</v>
+      </c>
+      <c r="D51">
+        <v>3307.0410000000002</v>
+      </c>
+      <c r="E51">
+        <v>1803.386</v>
+      </c>
+      <c r="F51">
+        <v>739.32600000000002</v>
+      </c>
+      <c r="G51">
+        <v>5438.509</v>
+      </c>
+      <c r="H51">
+        <v>12671.772000000001</v>
+      </c>
+      <c r="I51">
+        <v>1162.125</v>
+      </c>
+      <c r="J51">
+        <v>1496.0260000000001</v>
+      </c>
+      <c r="K51">
+        <v>1527.6959999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3648.549</v>
+      </c>
+      <c r="O51">
+        <v>7259.3639999999996</v>
+      </c>
+      <c r="P51">
+        <v>3023.7220000000002</v>
+      </c>
+      <c r="Q51">
+        <v>1179.684</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5412.4080000000004</v>
+      </c>
+      <c r="U51">
+        <v>1677.319</v>
+      </c>
+      <c r="V51">
+        <v>371.46100000000001</v>
+      </c>
+      <c r="W51">
+        <v>-64.376999999999995</v>
+      </c>
+      <c r="X51">
+        <v>929.42499999999995</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>256.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>271.16399999999999</v>
+      </c>
+      <c r="D52">
+        <v>3428.2330000000002</v>
+      </c>
+      <c r="E52">
+        <v>1840.82</v>
+      </c>
+      <c r="F52">
+        <v>812.94200000000001</v>
+      </c>
+      <c r="G52">
+        <v>5531.1859999999997</v>
+      </c>
+      <c r="H52">
+        <v>12540.897999999999</v>
+      </c>
+      <c r="I52">
+        <v>1156.002</v>
+      </c>
+      <c r="J52">
+        <v>1495.96</v>
+      </c>
+      <c r="K52">
+        <v>1331.4449999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3520.203</v>
+      </c>
+      <c r="O52">
+        <v>6799.4170000000004</v>
+      </c>
+      <c r="P52">
+        <v>2829.7860000000001</v>
+      </c>
+      <c r="Q52">
+        <v>104.093</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>58151</v>
+      </c>
+      <c r="T52">
+        <v>5741.4809999999998</v>
+      </c>
+      <c r="U52">
+        <v>1781.412</v>
+      </c>
+      <c r="V52">
+        <v>472.13600000000002</v>
+      </c>
+      <c r="W52">
+        <v>-67.305000000000007</v>
+      </c>
+      <c r="X52">
+        <v>-296.40300000000002</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>271.16399999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>244.316</v>
+      </c>
+      <c r="D53">
+        <v>3226.1439999999998</v>
+      </c>
+      <c r="E53">
+        <v>1749.383</v>
+      </c>
+      <c r="F53">
+        <v>755.928</v>
+      </c>
+      <c r="G53">
+        <v>5679.1790000000001</v>
+      </c>
+      <c r="H53">
+        <v>12788.364</v>
+      </c>
+      <c r="I53">
+        <v>1130.6759999999999</v>
+      </c>
+      <c r="J53">
+        <v>1506.7439999999999</v>
+      </c>
+      <c r="K53">
+        <v>1335.3389999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="N53">
+        <v>3455.009</v>
+      </c>
+      <c r="O53">
+        <v>6698.5929999999998</v>
+      </c>
+      <c r="P53">
+        <v>2842.0830000000001</v>
+      </c>
+      <c r="Q53">
+        <v>164.21100000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6089.7709999999997</v>
+      </c>
+      <c r="U53">
+        <v>1945.623</v>
+      </c>
+      <c r="V53">
+        <v>282.69099999999997</v>
+      </c>
+      <c r="W53">
+        <v>-67.388000000000005</v>
+      </c>
+      <c r="X53">
+        <v>-111.024</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>244.316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>253.28800000000001</v>
+      </c>
+      <c r="D54">
+        <v>3106.0059999999999</v>
+      </c>
+      <c r="E54">
+        <v>1625.7819999999999</v>
+      </c>
+      <c r="F54">
+        <v>695.08600000000001</v>
+      </c>
+      <c r="G54">
+        <v>5744.8729999999996</v>
+      </c>
+      <c r="H54">
+        <v>12863.936</v>
+      </c>
+      <c r="I54">
+        <v>1074.5119999999999</v>
+      </c>
+      <c r="J54">
+        <v>1507.019</v>
+      </c>
+      <c r="K54">
+        <v>1217.2919999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3303.1030000000001</v>
+      </c>
+      <c r="O54">
+        <v>6565.65</v>
+      </c>
+      <c r="P54">
+        <v>2724.3110000000001</v>
+      </c>
+      <c r="Q54">
+        <v>193.899</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>6298.2860000000001</v>
+      </c>
+      <c r="U54">
+        <v>2139.5219999999999</v>
+      </c>
+      <c r="V54">
+        <v>257.41800000000001</v>
+      </c>
+      <c r="W54">
+        <v>-67.33</v>
+      </c>
+      <c r="X54">
+        <v>-222.31200000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>253.28800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>242.40600000000001</v>
+      </c>
+      <c r="D55">
+        <v>3358.4059999999999</v>
+      </c>
+      <c r="E55">
+        <v>1859.6569999999999</v>
+      </c>
+      <c r="F55">
+        <v>783.56600000000003</v>
+      </c>
+      <c r="G55">
+        <v>5949</v>
+      </c>
+      <c r="H55">
+        <v>13102.358</v>
+      </c>
+      <c r="I55">
+        <v>1200.4659999999999</v>
+      </c>
+      <c r="J55">
+        <v>1508.6110000000001</v>
+      </c>
+      <c r="K55">
+        <v>1078.846</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>3367.181</v>
+      </c>
+      <c r="O55">
+        <v>6648.125</v>
+      </c>
+      <c r="P55">
+        <v>2587.4569999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-43.533000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6454.2330000000002</v>
+      </c>
+      <c r="U55">
+        <v>2095.989</v>
+      </c>
+      <c r="V55">
+        <v>277.36200000000002</v>
+      </c>
+      <c r="W55">
+        <v>-71.777000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-249.38900000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>242.40600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>301.03800000000001</v>
+      </c>
+      <c r="D56">
+        <v>3525.415</v>
+      </c>
+      <c r="E56">
+        <v>1858.1759999999999</v>
+      </c>
+      <c r="F56">
+        <v>856.73900000000003</v>
+      </c>
+      <c r="G56">
+        <v>6071.58</v>
+      </c>
+      <c r="H56">
+        <v>13274.361999999999</v>
+      </c>
+      <c r="I56">
+        <v>1252.04</v>
+      </c>
+      <c r="J56">
+        <v>1508.1420000000001</v>
+      </c>
+      <c r="K56">
+        <v>816.12599999999998</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3252.7959999999998</v>
+      </c>
+      <c r="O56">
+        <v>6611.5540000000001</v>
+      </c>
+      <c r="P56">
+        <v>2324.7640000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-482.43400000000003</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>57447</v>
+      </c>
+      <c r="T56">
+        <v>6662.808</v>
+      </c>
+      <c r="U56">
+        <v>1613.5550000000001</v>
+      </c>
+      <c r="V56">
+        <v>570.42200000000003</v>
+      </c>
+      <c r="W56">
+        <v>-71.727000000000004</v>
+      </c>
+      <c r="X56">
+        <v>-375.39</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-624.88</v>
+      </c>
+      <c r="AA56">
+        <v>301.03800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>280.089</v>
+      </c>
+      <c r="D57">
+        <v>3269.9319999999998</v>
+      </c>
+      <c r="E57">
+        <v>1711.798</v>
+      </c>
+      <c r="F57">
+        <v>815.18499999999995</v>
+      </c>
+      <c r="G57">
+        <v>5876.2619999999997</v>
+      </c>
+      <c r="H57">
+        <v>12744.625</v>
+      </c>
+      <c r="I57">
+        <v>1192.652</v>
+      </c>
+      <c r="J57">
+        <v>1482.492</v>
+      </c>
+      <c r="K57">
+        <v>702.01800000000003</v>
+      </c>
+      <c r="L57">
+        <v>-113.27200000000001</v>
+      </c>
+      <c r="M57">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="N57">
+        <v>2888.1990000000001</v>
+      </c>
+      <c r="O57">
+        <v>6162.2610000000004</v>
+      </c>
+      <c r="P57">
+        <v>2184.5100000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-521.41800000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6582.3639999999996</v>
+      </c>
+      <c r="U57">
+        <v>1092.1369999999999</v>
+      </c>
+      <c r="V57">
+        <v>260.87400000000002</v>
+      </c>
+      <c r="W57">
+        <v>-71.606999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-229.666</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-446.66399999999999</v>
+      </c>
+      <c r="AA57">
+        <v>280.089</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>267.25200000000001</v>
+      </c>
+      <c r="D58">
+        <v>3134.9929999999999</v>
+      </c>
+      <c r="E58">
+        <v>1572.864</v>
+      </c>
+      <c r="F58">
+        <v>738.89800000000002</v>
+      </c>
+      <c r="G58">
+        <v>5727.7719999999999</v>
+      </c>
+      <c r="H58">
+        <v>12568.398999999999</v>
+      </c>
+      <c r="I58">
+        <v>1145.202</v>
+      </c>
+      <c r="J58">
+        <v>2725.51</v>
+      </c>
+      <c r="K58">
+        <v>242.04300000000001</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2339.1509999999998</v>
+      </c>
+      <c r="O58">
+        <v>6808.2579999999998</v>
+      </c>
+      <c r="P58">
+        <v>2967.5529999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-16.829999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5760.1409999999996</v>
+      </c>
+      <c r="U58">
+        <v>1075.307</v>
+      </c>
+      <c r="V58">
+        <v>277.62299999999999</v>
+      </c>
+      <c r="W58">
+        <v>-93.150999999999996</v>
+      </c>
+      <c r="X58">
+        <v>-117.64100000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-49.091000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>267.25200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>285.34500000000003</v>
+      </c>
+      <c r="D59">
+        <v>3162.3110000000001</v>
+      </c>
+      <c r="E59">
+        <v>1701.0170000000001</v>
+      </c>
+      <c r="F59">
+        <v>794.11800000000005</v>
+      </c>
+      <c r="G59">
+        <v>5784.9970000000003</v>
+      </c>
+      <c r="H59">
+        <v>12337.215</v>
+      </c>
+      <c r="I59">
+        <v>1138.163</v>
+      </c>
+      <c r="J59">
+        <v>2724.9430000000002</v>
+      </c>
+      <c r="K59">
+        <v>665.12300000000005</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2767.3240000000001</v>
+      </c>
+      <c r="O59">
+        <v>7182.2759999999998</v>
+      </c>
+      <c r="P59">
+        <v>3390.0659999999998</v>
+      </c>
+      <c r="Q59">
+        <v>-58.293999999999997</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5154.9390000000003</v>
+      </c>
+      <c r="U59">
+        <v>1017.013</v>
+      </c>
+      <c r="V59">
+        <v>252.553</v>
+      </c>
+      <c r="W59">
+        <v>-87.728999999999999</v>
+      </c>
+      <c r="X59">
+        <v>-114.616</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-132.00200000000001</v>
+      </c>
+      <c r="AA59">
+        <v>285.34500000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>179.45400000000001</v>
+      </c>
+      <c r="D60">
+        <v>3144.5079999999998</v>
+      </c>
+      <c r="E60">
+        <v>1620.194</v>
+      </c>
+      <c r="F60">
+        <v>727.71699999999998</v>
+      </c>
+      <c r="G60">
+        <v>5440.9449999999997</v>
+      </c>
+      <c r="H60">
+        <v>12279.281999999999</v>
+      </c>
+      <c r="I60">
+        <v>1092.1379999999999</v>
+      </c>
+      <c r="J60">
+        <v>2723.96</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2349.12</v>
+      </c>
+      <c r="O60">
+        <v>7171.7129999999997</v>
+      </c>
+      <c r="P60">
+        <v>2947.1019999999999</v>
+      </c>
+      <c r="Q60">
+        <v>163.571</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>54754</v>
+      </c>
+      <c r="T60">
+        <v>5107.5690000000004</v>
+      </c>
+      <c r="U60">
+        <v>1180.5840000000001</v>
+      </c>
+      <c r="V60">
+        <v>510.89100000000002</v>
+      </c>
+      <c r="W60">
+        <v>-87.644999999999996</v>
+      </c>
+      <c r="X60">
+        <v>-582.82100000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>271.82</v>
+      </c>
+      <c r="AA60">
+        <v>179.45400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>194.97800000000001</v>
+      </c>
+      <c r="D61">
+        <v>2869.348</v>
+      </c>
+      <c r="E61">
+        <v>1561.0540000000001</v>
+      </c>
+      <c r="F61">
+        <v>683.11699999999996</v>
+      </c>
+      <c r="G61">
+        <v>5327.902</v>
+      </c>
+      <c r="H61">
+        <v>12001.554</v>
+      </c>
+      <c r="I61">
+        <v>1014.265</v>
+      </c>
+      <c r="J61">
+        <v>2725.4090000000001</v>
+      </c>
+      <c r="K61">
+        <v>406.8</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-2.407</v>
+      </c>
+      <c r="N61">
+        <v>2550.0410000000002</v>
+      </c>
+      <c r="O61">
+        <v>7146.8029999999999</v>
+      </c>
+      <c r="P61">
+        <v>3356.0590000000002</v>
+      </c>
+      <c r="Q61">
+        <v>-206.316</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4854.7510000000002</v>
+      </c>
+      <c r="U61">
+        <v>974.26800000000003</v>
+      </c>
+      <c r="V61">
+        <v>19.939</v>
+      </c>
+      <c r="W61">
+        <v>-85.986999999999995</v>
+      </c>
+      <c r="X61">
+        <v>-0.63500000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-58.767000000000003</v>
+      </c>
+      <c r="AA61">
+        <v>194.97800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>182.982</v>
+      </c>
+      <c r="D62">
+        <v>2705.59</v>
+      </c>
+      <c r="E62">
+        <v>1419.934</v>
+      </c>
+      <c r="F62">
+        <v>583.22400000000005</v>
+      </c>
+      <c r="G62">
+        <v>5151.0110000000004</v>
+      </c>
+      <c r="H62">
+        <v>11754.091</v>
+      </c>
+      <c r="I62">
+        <v>948.15700000000004</v>
+      </c>
+      <c r="J62">
+        <v>2724.86</v>
+      </c>
+      <c r="K62">
+        <v>574.29999999999995</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2368.0990000000002</v>
+      </c>
+      <c r="O62">
+        <v>6951.37</v>
+      </c>
+      <c r="P62">
+        <v>3299.1619999999998</v>
+      </c>
+      <c r="Q62">
+        <v>73.225999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4802.7209999999995</v>
+      </c>
+      <c r="U62">
+        <v>1047.4939999999999</v>
+      </c>
+      <c r="V62">
+        <v>342.70800000000003</v>
+      </c>
+      <c r="W62">
+        <v>-85.680999999999997</v>
+      </c>
+      <c r="X62">
+        <v>-224.53</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>11.403</v>
+      </c>
+      <c r="AA62">
+        <v>182.982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>187.084</v>
+      </c>
+      <c r="D63">
+        <v>2828.665</v>
+      </c>
+      <c r="E63">
+        <v>1587.7850000000001</v>
+      </c>
+      <c r="F63">
+        <v>640.89200000000005</v>
+      </c>
+      <c r="G63">
+        <v>5456.8389999999999</v>
+      </c>
+      <c r="H63">
+        <v>12069.401</v>
+      </c>
+      <c r="I63">
+        <v>999.15899999999999</v>
+      </c>
+      <c r="J63">
+        <v>2675</v>
+      </c>
+      <c r="K63">
+        <v>523.34100000000001</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2500.6190000000001</v>
+      </c>
+      <c r="O63">
+        <v>7042.4179999999997</v>
+      </c>
+      <c r="P63">
+        <v>3251.6210000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-12.523</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5026.9830000000002</v>
+      </c>
+      <c r="U63">
+        <v>1034.971</v>
+      </c>
+      <c r="V63">
+        <v>341.91899999999998</v>
+      </c>
+      <c r="W63">
+        <v>-85.183000000000007</v>
+      </c>
+      <c r="X63">
+        <v>-190.53700000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-166.81299999999999</v>
+      </c>
+      <c r="AA63">
+        <v>187.084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>241.79599999999999</v>
+      </c>
+      <c r="D64">
+        <v>2957.15</v>
+      </c>
+      <c r="E64">
+        <v>1593.92</v>
+      </c>
+      <c r="F64">
+        <v>706.33299999999997</v>
+      </c>
+      <c r="G64">
+        <v>5207.7870000000003</v>
+      </c>
+      <c r="H64">
+        <v>12034.142</v>
+      </c>
+      <c r="I64">
+        <v>1034.5889999999999</v>
+      </c>
+      <c r="J64">
+        <v>2652.4569999999999</v>
+      </c>
+      <c r="K64">
+        <v>303.7</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2365.8879999999999</v>
+      </c>
+      <c r="O64">
+        <v>7455.4639999999999</v>
+      </c>
+      <c r="P64">
+        <v>3014.2440000000001</v>
+      </c>
+      <c r="Q64">
+        <v>186.68199999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>48950</v>
+      </c>
+      <c r="T64">
+        <v>4578.6779999999999</v>
+      </c>
+      <c r="U64">
+        <v>1221.653</v>
+      </c>
+      <c r="V64">
+        <v>506.21199999999999</v>
+      </c>
+      <c r="W64">
+        <v>-85.072000000000003</v>
+      </c>
+      <c r="X64">
+        <v>-427.65600000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>163.346</v>
+      </c>
+      <c r="AA64">
+        <v>241.79599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>210.12899999999999</v>
+      </c>
+      <c r="D65">
+        <v>2743.1309999999999</v>
+      </c>
+      <c r="E65">
+        <v>1498.384</v>
+      </c>
+      <c r="F65">
+        <v>645.14499999999998</v>
+      </c>
+      <c r="G65">
+        <v>5281.8779999999997</v>
+      </c>
+      <c r="H65">
+        <v>11970.914000000001</v>
+      </c>
+      <c r="I65">
+        <v>1017.905</v>
+      </c>
+      <c r="J65">
+        <v>2653.0079999999998</v>
+      </c>
+      <c r="K65">
+        <v>595.95600000000002</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-1.1220000000000001</v>
+      </c>
+      <c r="N65">
+        <v>2494.2379999999998</v>
+      </c>
+      <c r="O65">
+        <v>7320.3249999999998</v>
+      </c>
+      <c r="P65">
+        <v>3248.9639999999999</v>
+      </c>
+      <c r="Q65">
+        <v>172.197</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4650.5889999999999</v>
+      </c>
+      <c r="U65">
+        <v>1393.85</v>
+      </c>
+      <c r="V65">
+        <v>113.932</v>
+      </c>
+      <c r="W65">
+        <v>-84.475999999999999</v>
+      </c>
+      <c r="X65">
+        <v>15.461</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>101.718</v>
+      </c>
+      <c r="AA65">
+        <v>210.12899999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>241.30500000000001</v>
+      </c>
+      <c r="D66">
+        <v>2670.8040000000001</v>
+      </c>
+      <c r="E66">
+        <v>1411.0740000000001</v>
+      </c>
+      <c r="F66">
+        <v>632.92600000000004</v>
+      </c>
+      <c r="G66">
+        <v>5247.8389999999999</v>
+      </c>
+      <c r="H66">
+        <v>11731.612999999999</v>
+      </c>
+      <c r="I66">
+        <v>997.18899999999996</v>
+      </c>
+      <c r="J66">
+        <v>2653.56</v>
+      </c>
+      <c r="K66">
+        <v>581.48699999999997</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2425.4740000000002</v>
+      </c>
+      <c r="O66">
+        <v>7200.6350000000002</v>
+      </c>
+      <c r="P66">
+        <v>3235.047</v>
+      </c>
+      <c r="Q66">
+        <v>126.886</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4530.9780000000001</v>
+      </c>
+      <c r="U66">
+        <v>1520.7360000000001</v>
+      </c>
+      <c r="V66">
+        <v>290.24400000000003</v>
+      </c>
+      <c r="W66">
+        <v>-84.176000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-156.136</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>11.015000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>241.30500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>238.673</v>
+      </c>
+      <c r="D67">
+        <v>3119.1390000000001</v>
+      </c>
+      <c r="E67">
+        <v>1869.3030000000001</v>
+      </c>
+      <c r="F67">
+        <v>745.69100000000003</v>
+      </c>
+      <c r="G67">
+        <v>4619.1540000000005</v>
+      </c>
+      <c r="H67">
+        <v>15325.333000000001</v>
+      </c>
+      <c r="I67">
+        <v>1209.3510000000001</v>
+      </c>
+      <c r="J67">
+        <v>5255.1559999999999</v>
+      </c>
+      <c r="K67">
+        <v>776.15899999999999</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>3048.4409999999998</v>
+      </c>
+      <c r="O67">
+        <v>10577.607</v>
+      </c>
+      <c r="P67">
+        <v>6031.3149999999996</v>
+      </c>
+      <c r="Q67">
+        <v>-701.173</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4747.7259999999997</v>
+      </c>
+      <c r="U67">
+        <v>819.56299999999999</v>
+      </c>
+      <c r="V67">
+        <v>385.11700000000002</v>
+      </c>
+      <c r="W67">
+        <v>-88.171000000000006</v>
+      </c>
+      <c r="X67">
+        <v>2309.027</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>700.42700000000002</v>
+      </c>
+      <c r="AA67">
+        <v>238.673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>293.30500000000001</v>
+      </c>
+      <c r="D68">
+        <v>3496.2379999999998</v>
+      </c>
+      <c r="E68">
+        <v>1930.751</v>
+      </c>
+      <c r="F68">
+        <v>852.52</v>
+      </c>
+      <c r="G68">
+        <v>4779.7179999999998</v>
+      </c>
+      <c r="H68">
+        <v>15489.904</v>
+      </c>
+      <c r="I68">
+        <v>1300.4960000000001</v>
+      </c>
+      <c r="J68">
+        <v>4861.8950000000004</v>
+      </c>
+      <c r="K68">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3395.86</v>
+      </c>
+      <c r="O68">
+        <v>10222.558000000001</v>
+      </c>
+      <c r="P68">
+        <v>5870.36</v>
+      </c>
+      <c r="Q68">
+        <v>65.322999999999993</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>56690</v>
+      </c>
+      <c r="T68">
+        <v>5267.3459999999995</v>
+      </c>
+      <c r="U68">
+        <v>884.88599999999997</v>
+      </c>
+      <c r="V68">
+        <v>513.178</v>
+      </c>
+      <c r="W68">
+        <v>-88.218999999999994</v>
+      </c>
+      <c r="X68">
+        <v>-385.72399999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="AA68">
+        <v>293.30500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>285.39699999999999</v>
+      </c>
+      <c r="D69">
+        <v>3364.6509999999998</v>
+      </c>
+      <c r="E69">
+        <v>1922.288</v>
+      </c>
+      <c r="F69">
+        <v>850.47199999999998</v>
+      </c>
+      <c r="G69">
+        <v>5004.6180000000004</v>
+      </c>
+      <c r="H69">
+        <v>15731.279</v>
+      </c>
+      <c r="I69">
+        <v>1304.26</v>
+      </c>
+      <c r="J69">
+        <v>4788.1469999999999</v>
+      </c>
+      <c r="K69">
+        <v>1144.0540000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-6.5220000000000002</v>
+      </c>
+      <c r="N69">
+        <v>3467.1239999999998</v>
+      </c>
+      <c r="O69">
+        <v>10200.620000000001</v>
+      </c>
+      <c r="P69">
+        <v>5932.201</v>
+      </c>
+      <c r="Q69">
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5530.6589999999997</v>
+      </c>
+      <c r="U69">
+        <v>874.76599999999996</v>
+      </c>
+      <c r="V69">
+        <v>238</v>
+      </c>
+      <c r="W69">
+        <v>-88.103999999999999</v>
+      </c>
+      <c r="X69">
+        <v>-135.41300000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-57.753999999999998</v>
+      </c>
+      <c r="AA69">
+        <v>285.39699999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>56.158999999999999</v>
+      </c>
+      <c r="D70">
+        <v>3370.6729999999998</v>
+      </c>
+      <c r="E70">
+        <v>1857.2819999999999</v>
+      </c>
+      <c r="F70">
+        <v>819.88099999999997</v>
+      </c>
+      <c r="G70">
+        <v>5286.3590000000004</v>
+      </c>
+      <c r="H70">
+        <v>15965.181</v>
+      </c>
+      <c r="I70">
+        <v>1229.336</v>
+      </c>
+      <c r="J70">
+        <v>4798.3710000000001</v>
+      </c>
+      <c r="K70">
+        <v>1248.212</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3537.703</v>
+      </c>
+      <c r="O70">
+        <v>10445.971</v>
+      </c>
+      <c r="P70">
+        <v>6046.5829999999996</v>
+      </c>
+      <c r="Q70">
+        <v>150.00399999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5519.21</v>
+      </c>
+      <c r="U70">
+        <v>1024.77</v>
+      </c>
+      <c r="V70">
+        <v>218.774</v>
+      </c>
+      <c r="W70">
+        <v>-88.082999999999998</v>
+      </c>
+      <c r="X70">
+        <v>-47.411000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-7.8449999999999998</v>
+      </c>
+      <c r="AA70">
+        <v>56.158999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>365.98899999999998</v>
+      </c>
+      <c r="D71">
+        <v>3749.5909999999999</v>
+      </c>
+      <c r="E71">
+        <v>2146.4079999999999</v>
+      </c>
+      <c r="F71">
+        <v>939.298</v>
+      </c>
+      <c r="G71">
+        <v>5563.0959999999995</v>
+      </c>
+      <c r="H71">
+        <v>16237.484</v>
+      </c>
+      <c r="I71">
+        <v>1376.4570000000001</v>
+      </c>
+      <c r="J71">
+        <v>4818.57</v>
+      </c>
+      <c r="K71">
+        <v>1055.527</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3508.5169999999998</v>
+      </c>
+      <c r="O71">
+        <v>10361.200999999999</v>
+      </c>
+      <c r="P71">
+        <v>5874.0969999999998</v>
+      </c>
+      <c r="Q71">
+        <v>64.759</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5876.2830000000004</v>
+      </c>
+      <c r="U71">
+        <v>1089.529</v>
+      </c>
+      <c r="V71">
+        <v>444.464</v>
+      </c>
+      <c r="W71">
+        <v>-88.03</v>
+      </c>
+      <c r="X71">
+        <v>-352.70400000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>7.3710000000000004</v>
+      </c>
+      <c r="AA71">
+        <v>365.98899999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>353.25599999999997</v>
+      </c>
+      <c r="D72">
+        <v>3817.4769999999999</v>
+      </c>
+      <c r="E72">
+        <v>2145.5169999999998</v>
+      </c>
+      <c r="F72">
+        <v>999.94500000000005</v>
+      </c>
+      <c r="G72">
+        <v>5085.2380000000003</v>
+      </c>
+      <c r="H72">
+        <v>15320.087</v>
+      </c>
+      <c r="I72">
+        <v>1430.306</v>
+      </c>
+      <c r="J72">
+        <v>4318.5590000000002</v>
+      </c>
+      <c r="K72">
+        <v>538.05499999999995</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3197.4830000000002</v>
+      </c>
+      <c r="O72">
+        <v>9454.5939999999991</v>
+      </c>
+      <c r="P72">
+        <v>4957.0249999999996</v>
+      </c>
+      <c r="Q72">
+        <v>-267.392</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>57170</v>
+      </c>
+      <c r="T72">
+        <v>5865.4930000000004</v>
+      </c>
+      <c r="U72">
+        <v>822.13699999999994</v>
+      </c>
+      <c r="V72">
+        <v>695.46199999999999</v>
+      </c>
+      <c r="W72">
+        <v>-100.95699999999999</v>
+      </c>
+      <c r="X72">
+        <v>-1146.444</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>61.526000000000003</v>
+      </c>
+      <c r="AA72">
+        <v>353.25599999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>375.71100000000001</v>
+      </c>
+      <c r="D73">
+        <v>3479.2939999999999</v>
+      </c>
+      <c r="E73">
+        <v>2081.7919999999999</v>
+      </c>
+      <c r="F73">
+        <v>888.87</v>
+      </c>
+      <c r="G73">
+        <v>5298.0820000000003</v>
+      </c>
+      <c r="H73">
+        <v>15425.041999999999</v>
+      </c>
+      <c r="I73">
+        <v>1404.7159999999999</v>
+      </c>
+      <c r="J73">
+        <v>4313.2209999999995</v>
+      </c>
+      <c r="K73">
+        <v>796.86099999999999</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-100.107</v>
+      </c>
+      <c r="N73">
+        <v>3308.5210000000002</v>
+      </c>
+      <c r="O73">
+        <v>9317.9359999999997</v>
+      </c>
+      <c r="P73">
+        <v>5110.0820000000003</v>
+      </c>
+      <c r="Q73">
+        <v>129.98500000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6107.1059999999998</v>
+      </c>
+      <c r="U73">
+        <v>952.12199999999996</v>
+      </c>
+      <c r="V73">
+        <v>159.38800000000001</v>
+      </c>
+      <c r="W73">
+        <v>-100.869</v>
+      </c>
+      <c r="X73">
+        <v>-7.2469999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>11.282999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>375.71100000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>311.73700000000002</v>
+      </c>
+      <c r="D74">
+        <v>3472.0450000000001</v>
+      </c>
+      <c r="E74">
+        <v>1957.972</v>
+      </c>
+      <c r="F74">
+        <v>873.375</v>
+      </c>
+      <c r="G74">
+        <v>5334.7359999999999</v>
+      </c>
+      <c r="H74">
+        <v>15307.687</v>
+      </c>
+      <c r="I74">
+        <v>1307.1780000000001</v>
+      </c>
+      <c r="J74">
+        <v>4303.3310000000001</v>
+      </c>
+      <c r="K74">
+        <v>1144.347</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3508.9340000000002</v>
+      </c>
+      <c r="O74">
+        <v>9486.5210000000006</v>
+      </c>
+      <c r="P74">
+        <v>5447.6779999999999</v>
+      </c>
+      <c r="Q74">
+        <v>95.263000000000005</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5821.1660000000002</v>
+      </c>
+      <c r="U74">
+        <v>1047.385</v>
+      </c>
+      <c r="V74">
+        <v>381.65199999999999</v>
+      </c>
+      <c r="W74">
+        <v>-99.59</v>
+      </c>
+      <c r="X74">
+        <v>-252.73599999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>311.73700000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>411.24799999999999</v>
+      </c>
+      <c r="D75">
+        <v>3687.518</v>
+      </c>
+      <c r="E75">
+        <v>2142.6320000000001</v>
+      </c>
+      <c r="F75">
+        <v>923.774</v>
+      </c>
+      <c r="G75">
+        <v>5537.7910000000002</v>
+      </c>
+      <c r="H75">
+        <v>15477.934999999999</v>
+      </c>
+      <c r="I75">
+        <v>1423.6590000000001</v>
+      </c>
+      <c r="J75">
+        <v>4284.2349999999997</v>
+      </c>
+      <c r="K75">
+        <v>1017.278</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3548.95</v>
+      </c>
+      <c r="O75">
+        <v>9461.8870000000006</v>
+      </c>
+      <c r="P75">
+        <v>5301.5129999999999</v>
+      </c>
+      <c r="Q75">
+        <v>51.344000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6016.0479999999998</v>
+      </c>
+      <c r="U75">
+        <v>1098.729</v>
+      </c>
+      <c r="V75">
+        <v>551.55700000000002</v>
+      </c>
+      <c r="W75">
+        <v>-98.483000000000004</v>
+      </c>
+      <c r="X75">
+        <v>-430.20100000000002</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-38.22</v>
+      </c>
+      <c r="AA75">
+        <v>411.24799999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>413.66800000000001</v>
+      </c>
+      <c r="D76">
+        <v>3681.4670000000001</v>
+      </c>
+      <c r="E76">
+        <v>2153.7800000000002</v>
+      </c>
+      <c r="F76">
+        <v>945.53899999999999</v>
+      </c>
+      <c r="G76">
+        <v>7673.0860000000002</v>
+      </c>
+      <c r="H76">
+        <v>17576.689999999999</v>
+      </c>
+      <c r="I76">
+        <v>1413.155</v>
+      </c>
+      <c r="J76">
+        <v>6520.8310000000001</v>
+      </c>
+      <c r="K76">
+        <v>586.78599999999994</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3151.7730000000001</v>
+      </c>
+      <c r="O76">
+        <v>11608.538</v>
+      </c>
+      <c r="P76">
+        <v>7107.8450000000003</v>
+      </c>
+      <c r="Q76">
+        <v>2121.038</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>55610</v>
+      </c>
+      <c r="T76">
+        <v>5968.152</v>
+      </c>
+      <c r="U76">
+        <v>3219.7669999999998</v>
+      </c>
+      <c r="V76">
+        <v>637.54300000000001</v>
+      </c>
+      <c r="W76">
+        <v>-113.462</v>
+      </c>
+      <c r="X76">
+        <v>1592.49</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-80.239000000000004</v>
+      </c>
+      <c r="AA76">
+        <v>413.66800000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>338.89800000000002</v>
+      </c>
+      <c r="D77">
+        <v>3334.511</v>
+      </c>
+      <c r="E77">
+        <v>2008.6690000000001</v>
+      </c>
+      <c r="F77">
+        <v>858.11500000000001</v>
+      </c>
+      <c r="G77">
+        <v>8138.0789999999997</v>
+      </c>
+      <c r="H77">
+        <v>19568.589</v>
+      </c>
+      <c r="I77">
+        <v>1287.42</v>
+      </c>
+      <c r="J77">
+        <v>7366.9120000000003</v>
+      </c>
+      <c r="K77">
+        <v>1736.779</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-3.4660000000000002</v>
+      </c>
+      <c r="N77">
+        <v>4157.3280000000004</v>
+      </c>
+      <c r="O77">
+        <v>13465.797</v>
+      </c>
+      <c r="P77">
+        <v>9239.6880000000001</v>
+      </c>
+      <c r="Q77">
+        <v>407.62599999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6102.7920000000004</v>
+      </c>
+      <c r="U77">
+        <v>3627.393</v>
+      </c>
+      <c r="V77">
+        <v>449.13099999999997</v>
+      </c>
+      <c r="W77">
+        <v>-113.352</v>
+      </c>
+      <c r="X77">
+        <v>1838.377</v>
+      </c>
+      <c r="Y77">
+        <v>97.338999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-133.50700000000001</v>
+      </c>
+      <c r="AA77">
+        <v>338.89800000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>204.47399999999999</v>
+      </c>
+      <c r="D78">
+        <v>3497.9740000000002</v>
+      </c>
+      <c r="E78">
+        <v>2000.1679999999999</v>
+      </c>
+      <c r="F78">
+        <v>872.20899999999995</v>
+      </c>
+      <c r="G78">
+        <v>5661.1509999999998</v>
+      </c>
+      <c r="H78">
+        <v>21043.989000000001</v>
+      </c>
+      <c r="I78">
+        <v>1311.7329999999999</v>
+      </c>
+      <c r="J78">
+        <v>8141.22</v>
+      </c>
+      <c r="K78">
+        <v>1604.318</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4091.1219999999998</v>
+      </c>
+      <c r="O78">
+        <v>14701.487999999999</v>
+      </c>
+      <c r="P78">
+        <v>9900.6409999999996</v>
+      </c>
+      <c r="Q78">
+        <v>-2679.038</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>6342.5010000000002</v>
+      </c>
+      <c r="U78">
+        <v>948.35500000000002</v>
+      </c>
+      <c r="V78">
+        <v>376.83699999999999</v>
+      </c>
+      <c r="W78">
+        <v>-113.306</v>
+      </c>
+      <c r="X78">
+        <v>215.928</v>
+      </c>
+      <c r="Y78">
+        <v>112.44199999999999</v>
+      </c>
+      <c r="Z78">
+        <v>142.25</v>
+      </c>
+      <c r="AA78">
+        <v>204.47399999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>367.25299999999999</v>
+      </c>
+      <c r="D79">
+        <v>3702.4319999999998</v>
+      </c>
+      <c r="E79">
+        <v>2202.2179999999998</v>
+      </c>
+      <c r="F79">
+        <v>964.73900000000003</v>
+      </c>
+      <c r="G79">
+        <v>5481.4260000000004</v>
+      </c>
+      <c r="H79">
+        <v>20365.28</v>
+      </c>
+      <c r="I79">
+        <v>1422.011</v>
+      </c>
+      <c r="J79">
+        <v>8097.9219999999996</v>
+      </c>
+      <c r="K79">
+        <v>1035.191</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3673.6089999999999</v>
+      </c>
+      <c r="O79">
+        <v>14057.852999999999</v>
+      </c>
+      <c r="P79">
+        <v>9271.2960000000003</v>
+      </c>
+      <c r="Q79">
+        <v>-250.738</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6307.4269999999997</v>
+      </c>
+      <c r="U79">
+        <v>697.61699999999996</v>
+      </c>
+      <c r="V79">
+        <v>464.89100000000002</v>
+      </c>
+      <c r="W79">
+        <v>-113.214</v>
+      </c>
+      <c r="X79">
+        <v>-781.56</v>
+      </c>
+      <c r="Y79">
+        <v>97.316999999999993</v>
+      </c>
+      <c r="Z79">
+        <v>49.286000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>367.25299999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>295.71600000000001</v>
+      </c>
+      <c r="D80">
+        <v>3160.6030000000001</v>
+      </c>
+      <c r="E80">
+        <v>1885.2249999999999</v>
+      </c>
+      <c r="F80">
+        <v>841.28399999999999</v>
+      </c>
+      <c r="G80">
+        <v>4885.2039999999997</v>
+      </c>
+      <c r="H80">
+        <v>19738.188999999998</v>
+      </c>
+      <c r="I80">
+        <v>1111.759</v>
+      </c>
+      <c r="J80">
+        <v>7652.2560000000003</v>
+      </c>
+      <c r="K80">
+        <v>723.5</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3148.373</v>
+      </c>
+      <c r="O80">
+        <v>13609.66</v>
+      </c>
+      <c r="P80">
+        <v>8601.5580000000009</v>
+      </c>
+      <c r="Q80">
+        <v>-12.103</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>50520</v>
+      </c>
+      <c r="T80">
+        <v>6128.5290000000005</v>
+      </c>
+      <c r="U80">
+        <v>685.51400000000001</v>
+      </c>
+      <c r="V80">
+        <v>780.09</v>
+      </c>
+      <c r="W80">
+        <v>-113.34099999999999</v>
+      </c>
+      <c r="X80">
+        <v>-823.43499999999995</v>
+      </c>
+      <c r="Y80">
+        <v>96.445999999999998</v>
+      </c>
+      <c r="Z80">
+        <v>22.712</v>
+      </c>
+      <c r="AA80">
+        <v>295.71600000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>321.40899999999999</v>
+      </c>
+      <c r="D81">
+        <v>3230.54</v>
+      </c>
+      <c r="E81">
+        <v>1891.4929999999999</v>
+      </c>
+      <c r="F81">
+        <v>858.36199999999997</v>
+      </c>
+      <c r="G81">
+        <v>4869.4840000000004</v>
+      </c>
+      <c r="H81">
+        <v>19785.917000000001</v>
+      </c>
+      <c r="I81">
+        <v>1264.991</v>
+      </c>
+      <c r="J81">
+        <v>7057.723</v>
+      </c>
+      <c r="K81">
+        <v>884.45</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-671.84199999999998</v>
+      </c>
+      <c r="N81">
+        <v>3328.223</v>
+      </c>
+      <c r="O81">
+        <v>13241.668</v>
+      </c>
+      <c r="P81">
+        <v>7942.1729999999998</v>
+      </c>
+      <c r="Q81">
+        <v>56.88</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6544.2489999999998</v>
+      </c>
+      <c r="U81">
+        <v>742.39400000000001</v>
+      </c>
+      <c r="V81">
+        <v>737.37400000000002</v>
+      </c>
+      <c r="W81">
+        <v>-113.542</v>
+      </c>
+      <c r="X81">
+        <v>-692.73400000000004</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>38.381</v>
+      </c>
+      <c r="AA81">
+        <v>321.40899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>447.30599999999998</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3411.9050000000002</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1849.1320000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>907.36</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4799.6790000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>19827.429</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1343.011</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>6602.3090000000002</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>610.90899999999999</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3207.0830000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>12705.125</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7213.2179999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-177.66</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>7122.3040000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>564.73400000000004</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>616.61400000000003</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-113.68600000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-916.53</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
         <v>-2.391</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>447.30599999999998</v>
       </c>
     </row>
